--- a/BackTest/2020-01-11 BackTest LTC.xlsx
+++ b/BackTest/2020-01-11 BackTest LTC.xlsx
@@ -5386,13 +5386,17 @@
         <v>50920.83333333334</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>50550</v>
+      </c>
+      <c r="K143" t="n">
+        <v>50550</v>
+      </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
@@ -5421,14 +5425,22 @@
         <v>50910.83333333334</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K144" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5456,14 +5468,22 @@
         <v>50900.83333333334</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>50550</v>
+      </c>
+      <c r="K145" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5491,13 +5511,17 @@
         <v>50890.83333333334</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>50550</v>
+      </c>
+      <c r="K146" t="n">
+        <v>50550</v>
+      </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
@@ -5526,14 +5550,22 @@
         <v>50878.33333333334</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>50550</v>
+      </c>
+      <c r="K147" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5561,14 +5593,22 @@
         <v>50868.33333333334</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K148" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5596,14 +5636,22 @@
         <v>50859.16666666666</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K149" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5631,14 +5679,22 @@
         <v>50851.66666666666</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>50550</v>
+      </c>
+      <c r="K150" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5672,8 +5728,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5707,8 +5769,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5742,8 +5810,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5777,8 +5851,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5812,8 +5892,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5847,8 +5933,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5882,8 +5974,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5917,8 +6015,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5952,8 +6056,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5987,8 +6097,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6022,8 +6138,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6057,8 +6179,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6092,8 +6220,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6127,8 +6261,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6162,8 +6302,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6197,8 +6343,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +6384,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6267,8 +6425,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6302,8 +6466,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6337,8 +6507,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6372,8 +6548,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6407,8 +6589,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6442,8 +6630,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6477,8 +6671,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6512,8 +6712,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +6753,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6582,8 +6794,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +6835,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +6876,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6687,8 +6917,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6722,8 +6958,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +6999,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +7040,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6827,8 +7081,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6862,8 +7122,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6897,8 +7163,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6926,18 +7198,18 @@
         <v>50581.66666666666</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>50350</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>50550</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -6967,15 +7239,15 @@
         <v>50570.83333333334</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>50350</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>50550</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7008,15 +7280,15 @@
         <v>50563.33333333334</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>50350</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>50550</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7055,7 +7327,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>50550</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7088,15 +7362,15 @@
         <v>50550</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>50350</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>50550</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7129,15 +7403,15 @@
         <v>50543.33333333334</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>50350</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>50550</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7170,15 +7444,15 @@
         <v>50538.33333333334</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>50550</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7211,15 +7485,15 @@
         <v>50533.33333333334</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>50550</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7252,15 +7526,15 @@
         <v>50525.83333333334</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>50200</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>50550</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7293,15 +7567,15 @@
         <v>50520</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>50200</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>50550</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7334,15 +7608,15 @@
         <v>50515</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>50250</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>50550</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7375,15 +7649,15 @@
         <v>50510.83333333334</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>50250</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>50550</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7416,15 +7690,15 @@
         <v>50505.83333333334</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>50200</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>50550</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7457,15 +7731,15 @@
         <v>50500.83333333334</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>50550</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7498,15 +7772,15 @@
         <v>50496.66666666666</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>50250</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>50550</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7539,15 +7813,15 @@
         <v>50493.33333333334</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>50550</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7580,15 +7854,15 @@
         <v>50490.83333333334</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>50350</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>50550</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7621,15 +7895,15 @@
         <v>50486.66666666666</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>50550</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7662,15 +7936,15 @@
         <v>50483.33333333334</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>50350</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>50550</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7703,15 +7977,15 @@
         <v>50479.16666666666</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>50550</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7744,15 +8018,15 @@
         <v>50475.83333333334</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>50550</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7785,15 +8059,15 @@
         <v>50472.5</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>50550</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7826,15 +8100,15 @@
         <v>50467.5</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>50250</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>50550</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7867,15 +8141,15 @@
         <v>50462.5</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>50350</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>50550</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7908,15 +8182,15 @@
         <v>50462.5</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>50450</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>50550</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7949,15 +8223,15 @@
         <v>50464.16666666666</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>50500</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>50550</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7990,15 +8264,15 @@
         <v>50460.83333333334</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>50450</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>50550</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8031,15 +8305,15 @@
         <v>50455.83333333334</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>50450</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>50550</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8072,15 +8346,15 @@
         <v>50453.33333333334</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>50550</v>
-      </c>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>50550</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8113,15 +8387,15 @@
         <v>50450.83333333334</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>50550</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>50550</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8154,15 +8428,15 @@
         <v>50450.83333333334</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>50550</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>50550</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8195,15 +8469,15 @@
         <v>50447.5</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>50500</v>
-      </c>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>50550</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8236,15 +8510,15 @@
         <v>50445</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>50500</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>50550</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8277,15 +8551,15 @@
         <v>50442.5</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>50500</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>50550</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8318,15 +8592,15 @@
         <v>50440.83333333334</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>50500</v>
-      </c>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>50550</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8359,15 +8633,15 @@
         <v>50439.16666666666</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>50500</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>50550</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8400,15 +8674,15 @@
         <v>50437.5</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>50500</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>50550</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8441,15 +8715,15 @@
         <v>50435.83333333334</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>50500</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>50550</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8482,15 +8756,15 @@
         <v>50434.16666666666</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>50500</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>50550</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8523,15 +8797,15 @@
         <v>50431.66666666666</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>50500</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>50550</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8564,15 +8838,15 @@
         <v>50430.83333333334</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>50450</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>50550</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8605,15 +8879,15 @@
         <v>50429.16666666666</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>50550</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>50550</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8646,15 +8920,15 @@
         <v>50424.16666666666</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>50450</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>50550</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8687,15 +8961,15 @@
         <v>50420</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>50550</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8728,15 +9002,15 @@
         <v>50414.16666666666</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>50550</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8769,15 +9043,15 @@
         <v>50409.16666666666</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>50350</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>50550</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8810,15 +9084,15 @@
         <v>50404.16666666666</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>50350</v>
-      </c>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>50550</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8851,15 +9125,15 @@
         <v>50397.5</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>50250</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>50550</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8892,15 +9166,15 @@
         <v>50390.83333333334</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>50250</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>50550</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8933,15 +9207,15 @@
         <v>50387.5</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>50200</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>50550</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8974,15 +9248,15 @@
         <v>50386.66666666666</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>50550</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9015,15 +9289,15 @@
         <v>50387.5</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>50550</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>50550</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9056,15 +9330,15 @@
         <v>50389.16666666666</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>50650</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>50550</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9097,15 +9371,15 @@
         <v>50391.66666666666</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>50700</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>50550</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9138,15 +9412,15 @@
         <v>50395</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>50800</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>50550</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9179,15 +9453,15 @@
         <v>50401.66666666666</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>50850</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>50550</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9226,7 +9500,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>50550</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9265,7 +9541,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>50550</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9304,7 +9582,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>50550</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9343,7 +9623,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>50550</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9382,7 +9664,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>50550</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9421,7 +9705,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>50550</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9460,7 +9746,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>50550</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9499,7 +9787,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>50550</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9538,7 +9828,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>50550</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9577,7 +9869,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>50550</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9616,7 +9910,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>50550</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9655,7 +9951,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>50550</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9694,7 +9992,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>50550</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9733,7 +10033,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>50550</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9772,7 +10074,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>50550</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9811,7 +10115,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>50550</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9850,7 +10156,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>50550</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9889,7 +10197,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>50550</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9928,7 +10238,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>50550</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9967,7 +10279,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>50550</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10006,7 +10320,9 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>50550</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10045,7 +10361,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>50550</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10084,7 +10402,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>50550</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10123,7 +10443,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>50550</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10162,7 +10484,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>50550</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10201,7 +10525,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>50550</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10240,7 +10566,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>50550</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10279,7 +10607,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>50550</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10318,7 +10648,9 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>50550</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10357,7 +10689,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>50550</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10396,7 +10730,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>50550</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10435,7 +10771,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>50550</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10474,7 +10812,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>50550</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10513,7 +10853,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>50550</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10552,7 +10894,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>50550</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10591,7 +10935,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>50550</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10630,7 +10976,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>50550</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10669,7 +11017,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>50550</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10708,7 +11058,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>50550</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10747,7 +11099,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>50550</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10786,7 +11140,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>50550</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10825,7 +11181,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>50550</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10864,7 +11222,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>50550</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10903,7 +11263,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>50550</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10942,7 +11304,9 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>50550</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10981,7 +11345,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>50550</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11020,7 +11386,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>50550</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11059,7 +11427,9 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>50550</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11098,7 +11468,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>50550</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11137,7 +11509,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>50550</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11176,7 +11550,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>50550</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11212,16 +11588,20 @@
         <v>0</v>
       </c>
       <c r="I294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>50550</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M294" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11249,11 +11629,17 @@
         <v>0</v>
       </c>
       <c r="I295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11284,11 +11670,17 @@
         <v>0</v>
       </c>
       <c r="I296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11319,11 +11711,17 @@
         <v>0</v>
       </c>
       <c r="I297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11354,11 +11752,17 @@
         <v>0</v>
       </c>
       <c r="I298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11389,11 +11793,17 @@
         <v>0</v>
       </c>
       <c r="I299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11424,11 +11834,17 @@
         <v>0</v>
       </c>
       <c r="I300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11459,11 +11875,17 @@
         <v>0</v>
       </c>
       <c r="I301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11494,11 +11916,17 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11529,11 +11957,17 @@
         <v>0</v>
       </c>
       <c r="I303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11567,8 +12001,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11602,8 +12042,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11637,8 +12083,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11672,8 +12124,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +12165,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11742,8 +12206,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11777,8 +12247,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11812,8 +12288,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11847,8 +12329,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11882,8 +12370,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11917,8 +12411,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11952,8 +12452,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11987,8 +12493,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12019,11 +12531,17 @@
         <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12054,11 +12572,17 @@
         <v>0</v>
       </c>
       <c r="I318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12092,8 +12616,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12127,8 +12657,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12162,8 +12698,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12194,13 +12736,19 @@
         <v>0</v>
       </c>
       <c r="I322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>50550</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M322" t="n">
-        <v>1</v>
+        <v>1.04148862512364</v>
       </c>
     </row>
     <row r="323">
@@ -12229,7 +12777,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest LTC.xlsx
+++ b/BackTest/2020-01-11 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1573,7 +1573,7 @@
         <v>-73.4555</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-245.06403152</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-248.77053152</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-219.22523152</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1163.11772665</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-713.1572804799996</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-736.8339804799996</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-738.8339804799996</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-638.4387804799995</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-738.4387804799995</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-746.2853804799995</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-745.2952804799995</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-745.2952804799995</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-695.2952804799995</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-390.1315778699995</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-401.6228778699996</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-456.4327778699995</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-458.0075778699995</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-458.0075778699995</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-458.0075778699995</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-458.0075778699995</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-375.7066778699995</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-435.1681778699995</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-412.0966778699995</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-412.0966778699995</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-412.0966778699995</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-412.0966778699995</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-455.2714778699995</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-457.0163778699995</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-457.7900778699995</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-469.7801778699995</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-469.7801778699995</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-473.7801778699995</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-474.1444211799995</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-465.8319211799995</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1588.799221179999</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1588.779651709999</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1616.615551709999</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1471.588851709999</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1452.788551709999</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1629.452851709999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1629.452851709999</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1629.452851709999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1982.095451709999</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1982.095451709999</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2341.444151709999</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2139.496151709999</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2166.959251709999</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-2130.631051709999</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2210.099251709999</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2211.336651709999</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2280.446151709999</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2262.446151709999</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2244.889451709998</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2244.889451709998</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2360.052151709998</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2387.409951709998</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2387.409951709998</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-2391.259851709999</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2391.259851709999</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-2391.214351709998</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-2419.025751709999</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-2412.929551709999</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-2552.929551709999</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-2477.081351709999</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-2477.081351709999</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-2477.081351709999</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-2736.893051709999</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-2736.893051709999</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2569.015351709999</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2687.622551709999</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2687.656851709999</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2521.449751709999</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2454.259351709999</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2456.247851709998</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2456.247851709998</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-2562.415751709998</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-2561.777451709998</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-2613.777451709998</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-2613.777451709998</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-2613.812651709998</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-2613.812651709998</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-2613.812651709998</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-2613.812651709998</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-2613.812651709998</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2613.812651709998</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-2615.542851709998</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-2608.858151709998</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-2608.858151709998</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-2608.858151709998</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-2608.858151709998</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-2608.858151709998</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-2608.858151709998</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-2608.858151709998</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-2643.461151709998</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-2643.461151709998</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-2642.949951709998</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-2691.934851709998</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-2691.924851709998</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-2691.924851709998</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-2642.024851709998</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-2644.102651709998</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-2644.102651709998</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-2645.124151709998</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-2645.124151709998</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8701,10 +8701,14 @@
         <v>-3098.645151709998</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>50300</v>
+      </c>
+      <c r="J252" t="n">
+        <v>50300</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
@@ -8734,11 +8738,19 @@
         <v>-3098.645151709998</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>50300</v>
+      </c>
+      <c r="J253" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8779,19 @@
         <v>-3105.490651709998</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>50300</v>
+      </c>
+      <c r="J254" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,10 +8820,14 @@
         <v>-3105.490651709998</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>50200</v>
+      </c>
+      <c r="J255" t="n">
+        <v>50200</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
@@ -8833,11 +8857,19 @@
         <v>-3101.490651709998</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>50200</v>
+      </c>
+      <c r="J256" t="n">
+        <v>50200</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,15 +8898,19 @@
         <v>-3101.490651709998</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>50250</v>
       </c>
       <c r="J257" t="n">
-        <v>50250</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
+        <v>50200</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +8939,7 @@
         <v>-3104.090751709998</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>50250</v>
@@ -8911,11 +8947,7 @@
       <c r="J258" t="n">
         <v>50250</v>
       </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8944,7 +8976,7 @@
         <v>-3103.572751709998</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>50200</v>
@@ -8985,15 +9017,19 @@
         <v>-3109.067151709998</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>50300</v>
       </c>
       <c r="J260" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K260" t="inlineStr"/>
+        <v>50250</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9022,1289 +9058,1235 @@
         <v>-3106.842651709998</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>50250</v>
       </c>
       <c r="J261" t="n">
+        <v>50250</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>50350</v>
+      </c>
+      <c r="C262" t="n">
+        <v>50350</v>
+      </c>
+      <c r="D262" t="n">
+        <v>50350</v>
+      </c>
+      <c r="E262" t="n">
+        <v>50350</v>
+      </c>
+      <c r="F262" t="n">
+        <v>14.9198</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-3106.842651709998</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>50350</v>
+      </c>
+      <c r="J262" t="n">
+        <v>50250</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
         <v>50300</v>
       </c>
-      <c r="K261" t="inlineStr">
+      <c r="C263" t="n">
+        <v>50300</v>
+      </c>
+      <c r="D263" t="n">
+        <v>50300</v>
+      </c>
+      <c r="E263" t="n">
+        <v>50300</v>
+      </c>
+      <c r="F263" t="n">
+        <v>40</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-3146.842651709998</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>50350</v>
+      </c>
+      <c r="J263" t="n">
+        <v>50250</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>50350</v>
+      </c>
+      <c r="C264" t="n">
+        <v>50350</v>
+      </c>
+      <c r="D264" t="n">
+        <v>50350</v>
+      </c>
+      <c r="E264" t="n">
+        <v>50350</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.6151</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-3146.227551709998</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>50300</v>
+      </c>
+      <c r="J264" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>50300</v>
+      </c>
+      <c r="C265" t="n">
+        <v>50300</v>
+      </c>
+      <c r="D265" t="n">
+        <v>50300</v>
+      </c>
+      <c r="E265" t="n">
+        <v>50300</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-3147.707551709998</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>50350</v>
+      </c>
+      <c r="J265" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>50300</v>
+      </c>
+      <c r="C266" t="n">
+        <v>50300</v>
+      </c>
+      <c r="D266" t="n">
+        <v>50300</v>
+      </c>
+      <c r="E266" t="n">
+        <v>50300</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.1022</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-3147.707551709998</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>50300</v>
+      </c>
+      <c r="J266" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>50300</v>
+      </c>
+      <c r="C267" t="n">
+        <v>50300</v>
+      </c>
+      <c r="D267" t="n">
+        <v>50300</v>
+      </c>
+      <c r="E267" t="n">
+        <v>50300</v>
+      </c>
+      <c r="F267" t="n">
+        <v>3.7407</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-3147.707551709998</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>50300</v>
+      </c>
+      <c r="J267" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>50250</v>
+      </c>
+      <c r="C268" t="n">
+        <v>50250</v>
+      </c>
+      <c r="D268" t="n">
+        <v>50250</v>
+      </c>
+      <c r="E268" t="n">
+        <v>50250</v>
+      </c>
+      <c r="F268" t="n">
+        <v>27.871</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-3175.578551709998</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>50300</v>
+      </c>
+      <c r="J268" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>50350</v>
+      </c>
+      <c r="C269" t="n">
+        <v>50350</v>
+      </c>
+      <c r="D269" t="n">
+        <v>50350</v>
+      </c>
+      <c r="E269" t="n">
+        <v>50350</v>
+      </c>
+      <c r="F269" t="n">
+        <v>54.39</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-3121.188551709998</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>50250</v>
+      </c>
+      <c r="J269" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>50450</v>
+      </c>
+      <c r="C270" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D270" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E270" t="n">
+        <v>50450</v>
+      </c>
+      <c r="F270" t="n">
+        <v>24.1754</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-3097.013151709998</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>50350</v>
+      </c>
+      <c r="J270" t="n">
+        <v>50350</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C271" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D271" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E271" t="n">
+        <v>50450</v>
+      </c>
+      <c r="F271" t="n">
+        <v>104.4035</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-3097.013151709998</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J271" t="n">
+        <v>50350</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>50450</v>
+      </c>
+      <c r="C272" t="n">
+        <v>50450</v>
+      </c>
+      <c r="D272" t="n">
+        <v>50450</v>
+      </c>
+      <c r="E272" t="n">
+        <v>50450</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1.8016</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-3098.814751709998</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J272" t="n">
+        <v>50350</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>50450</v>
+      </c>
+      <c r="C273" t="n">
+        <v>50450</v>
+      </c>
+      <c r="D273" t="n">
+        <v>50450</v>
+      </c>
+      <c r="E273" t="n">
+        <v>50450</v>
+      </c>
+      <c r="F273" t="n">
+        <v>20</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-3098.814751709998</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>50450</v>
+      </c>
+      <c r="J273" t="n">
+        <v>50450</v>
+      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>50550</v>
+      </c>
+      <c r="C274" t="n">
+        <v>50550</v>
+      </c>
+      <c r="D274" t="n">
+        <v>50550</v>
+      </c>
+      <c r="E274" t="n">
+        <v>50550</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.4251</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-3098.389651709998</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>50450</v>
+      </c>
+      <c r="J274" t="n">
+        <v>50450</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>50550</v>
+      </c>
+      <c r="C275" t="n">
+        <v>50550</v>
+      </c>
+      <c r="D275" t="n">
+        <v>50550</v>
+      </c>
+      <c r="E275" t="n">
+        <v>50550</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-3098.389651709998</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>50550</v>
+      </c>
+      <c r="J275" t="n">
+        <v>50450</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>50550</v>
+      </c>
+      <c r="C276" t="n">
+        <v>50550</v>
+      </c>
+      <c r="D276" t="n">
+        <v>50550</v>
+      </c>
+      <c r="E276" t="n">
+        <v>50550</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1.2542</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-3098.389651709998</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>50550</v>
+      </c>
+      <c r="J276" t="n">
+        <v>50550</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C277" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D277" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E277" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F277" t="n">
+        <v>50</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H277" t="n">
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>50550</v>
+      </c>
+      <c r="J277" t="n">
+        <v>50550</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C278" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D278" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E278" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F278" t="n">
+        <v>3.5758</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J278" t="n">
+        <v>50550</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C279" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D279" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E279" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F279" t="n">
+        <v>46.3114</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C280" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D280" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E280" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.5844</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C281" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D281" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E281" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.5485</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C282" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D282" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E282" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J282" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C283" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D283" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E283" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F283" t="n">
+        <v>6.7682</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J283" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C284" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D284" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E284" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1.7237</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J284" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C285" t="n">
+        <v>50450</v>
+      </c>
+      <c r="D285" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E285" t="n">
+        <v>50450</v>
+      </c>
+      <c r="F285" t="n">
+        <v>42.0149</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-3190.404551709998</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>50450</v>
+      </c>
+      <c r="C286" t="n">
+        <v>50450</v>
+      </c>
+      <c r="D286" t="n">
+        <v>50450</v>
+      </c>
+      <c r="E286" t="n">
+        <v>50450</v>
+      </c>
+      <c r="F286" t="n">
+        <v>86.2085</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-3190.404551709998</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>50550</v>
+      </c>
+      <c r="C287" t="n">
+        <v>50550</v>
+      </c>
+      <c r="D287" t="n">
+        <v>50550</v>
+      </c>
+      <c r="E287" t="n">
+        <v>50550</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-3188.604551709998</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>50450</v>
+      </c>
+      <c r="C288" t="n">
+        <v>50350</v>
+      </c>
+      <c r="D288" t="n">
+        <v>50450</v>
+      </c>
+      <c r="E288" t="n">
+        <v>50350</v>
+      </c>
+      <c r="F288" t="n">
+        <v>117.4214</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-3306.025951709998</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>50400</v>
+      </c>
+      <c r="C289" t="n">
+        <v>50400</v>
+      </c>
+      <c r="D289" t="n">
+        <v>50400</v>
+      </c>
+      <c r="E289" t="n">
+        <v>50250</v>
+      </c>
+      <c r="F289" t="n">
+        <v>43.577</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-3262.448951709998</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>50300</v>
+      </c>
+      <c r="C290" t="n">
+        <v>50300</v>
+      </c>
+      <c r="D290" t="n">
+        <v>50300</v>
+      </c>
+      <c r="E290" t="n">
+        <v>50300</v>
+      </c>
+      <c r="F290" t="n">
+        <v>10.1107</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-3272.559651709998</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>50400</v>
+      </c>
+      <c r="J290" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>50350</v>
+      </c>
+      <c r="C291" t="n">
+        <v>50350</v>
+      </c>
+      <c r="D291" t="n">
+        <v>50350</v>
+      </c>
+      <c r="E291" t="n">
+        <v>50350</v>
+      </c>
+      <c r="F291" t="n">
+        <v>6.6129</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-3265.946751709998</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>50300</v>
+      </c>
+      <c r="J291" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>50350</v>
+      </c>
+      <c r="C292" t="n">
+        <v>50350</v>
+      </c>
+      <c r="D292" t="n">
+        <v>50350</v>
+      </c>
+      <c r="E292" t="n">
+        <v>50350</v>
+      </c>
+      <c r="F292" t="n">
+        <v>43.4948</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-3265.946751709998</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>50350</v>
+      </c>
+      <c r="J292" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>50250</v>
+      </c>
+      <c r="C293" t="n">
+        <v>50250</v>
+      </c>
+      <c r="D293" t="n">
+        <v>50300</v>
+      </c>
+      <c r="E293" t="n">
+        <v>50250</v>
+      </c>
+      <c r="F293" t="n">
+        <v>258.96651431</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-3524.913266019998</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>50350</v>
+      </c>
+      <c r="J293" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K293" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>50350</v>
-      </c>
-      <c r="C262" t="n">
-        <v>50350</v>
-      </c>
-      <c r="D262" t="n">
-        <v>50350</v>
-      </c>
-      <c r="E262" t="n">
-        <v>50350</v>
-      </c>
-      <c r="F262" t="n">
-        <v>14.9198</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-3106.842651709998</v>
-      </c>
-      <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>50350</v>
-      </c>
-      <c r="J262" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>50300</v>
-      </c>
-      <c r="C263" t="n">
-        <v>50300</v>
-      </c>
-      <c r="D263" t="n">
-        <v>50300</v>
-      </c>
-      <c r="E263" t="n">
-        <v>50300</v>
-      </c>
-      <c r="F263" t="n">
-        <v>40</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-3146.842651709998</v>
-      </c>
-      <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>50350</v>
-      </c>
-      <c r="J263" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>50350</v>
-      </c>
-      <c r="C264" t="n">
-        <v>50350</v>
-      </c>
-      <c r="D264" t="n">
-        <v>50350</v>
-      </c>
-      <c r="E264" t="n">
-        <v>50350</v>
-      </c>
-      <c r="F264" t="n">
-        <v>0.6151</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-3146.227551709998</v>
-      </c>
-      <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>50300</v>
-      </c>
-      <c r="J264" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>50300</v>
-      </c>
-      <c r="C265" t="n">
-        <v>50300</v>
-      </c>
-      <c r="D265" t="n">
-        <v>50300</v>
-      </c>
-      <c r="E265" t="n">
-        <v>50300</v>
-      </c>
-      <c r="F265" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-3147.707551709998</v>
-      </c>
-      <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>50350</v>
-      </c>
-      <c r="J265" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>50300</v>
-      </c>
-      <c r="C266" t="n">
-        <v>50300</v>
-      </c>
-      <c r="D266" t="n">
-        <v>50300</v>
-      </c>
-      <c r="E266" t="n">
-        <v>50300</v>
-      </c>
-      <c r="F266" t="n">
-        <v>0.1022</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-3147.707551709998</v>
-      </c>
-      <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>50300</v>
-      </c>
-      <c r="J266" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>50300</v>
-      </c>
-      <c r="C267" t="n">
-        <v>50300</v>
-      </c>
-      <c r="D267" t="n">
-        <v>50300</v>
-      </c>
-      <c r="E267" t="n">
-        <v>50300</v>
-      </c>
-      <c r="F267" t="n">
-        <v>3.7407</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-3147.707551709998</v>
-      </c>
-      <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>50300</v>
-      </c>
-      <c r="J267" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>50250</v>
-      </c>
-      <c r="C268" t="n">
-        <v>50250</v>
-      </c>
-      <c r="D268" t="n">
-        <v>50250</v>
-      </c>
-      <c r="E268" t="n">
-        <v>50250</v>
-      </c>
-      <c r="F268" t="n">
-        <v>27.871</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-3175.578551709998</v>
-      </c>
-      <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>50300</v>
-      </c>
-      <c r="J268" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>50350</v>
-      </c>
-      <c r="C269" t="n">
-        <v>50350</v>
-      </c>
-      <c r="D269" t="n">
-        <v>50350</v>
-      </c>
-      <c r="E269" t="n">
-        <v>50350</v>
-      </c>
-      <c r="F269" t="n">
-        <v>54.39</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-3121.188551709998</v>
-      </c>
-      <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>50250</v>
-      </c>
-      <c r="J269" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>50450</v>
-      </c>
-      <c r="C270" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D270" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E270" t="n">
-        <v>50450</v>
-      </c>
-      <c r="F270" t="n">
-        <v>24.1754</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-3097.013151709998</v>
-      </c>
-      <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>50350</v>
-      </c>
-      <c r="J270" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C271" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D271" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E271" t="n">
-        <v>50450</v>
-      </c>
-      <c r="F271" t="n">
-        <v>104.4035</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-3097.013151709998</v>
-      </c>
-      <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>50500</v>
-      </c>
-      <c r="J271" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>50450</v>
-      </c>
-      <c r="C272" t="n">
-        <v>50450</v>
-      </c>
-      <c r="D272" t="n">
-        <v>50450</v>
-      </c>
-      <c r="E272" t="n">
-        <v>50450</v>
-      </c>
-      <c r="F272" t="n">
-        <v>1.8016</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-3098.814751709998</v>
-      </c>
-      <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>50500</v>
-      </c>
-      <c r="J272" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>50450</v>
-      </c>
-      <c r="C273" t="n">
-        <v>50450</v>
-      </c>
-      <c r="D273" t="n">
-        <v>50450</v>
-      </c>
-      <c r="E273" t="n">
-        <v>50450</v>
-      </c>
-      <c r="F273" t="n">
-        <v>20</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-3098.814751709998</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>50550</v>
-      </c>
-      <c r="C274" t="n">
-        <v>50550</v>
-      </c>
-      <c r="D274" t="n">
-        <v>50550</v>
-      </c>
-      <c r="E274" t="n">
-        <v>50550</v>
-      </c>
-      <c r="F274" t="n">
-        <v>0.4251</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-3098.389651709998</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>50550</v>
-      </c>
-      <c r="C275" t="n">
-        <v>50550</v>
-      </c>
-      <c r="D275" t="n">
-        <v>50550</v>
-      </c>
-      <c r="E275" t="n">
-        <v>50550</v>
-      </c>
-      <c r="F275" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-3098.389651709998</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>50550</v>
-      </c>
-      <c r="C276" t="n">
-        <v>50550</v>
-      </c>
-      <c r="D276" t="n">
-        <v>50550</v>
-      </c>
-      <c r="E276" t="n">
-        <v>50550</v>
-      </c>
-      <c r="F276" t="n">
-        <v>1.2542</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-3098.389651709998</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C277" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D277" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E277" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F277" t="n">
-        <v>50</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C278" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D278" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E278" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F278" t="n">
-        <v>3.5758</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C279" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D279" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E279" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F279" t="n">
-        <v>46.3114</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C280" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D280" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E280" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F280" t="n">
-        <v>0.5844</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C281" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D281" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E281" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F281" t="n">
-        <v>0.5485</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C282" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D282" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E282" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F282" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C283" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D283" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E283" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F283" t="n">
-        <v>6.7682</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C284" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D284" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E284" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F284" t="n">
-        <v>1.7237</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C285" t="n">
-        <v>50450</v>
-      </c>
-      <c r="D285" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E285" t="n">
-        <v>50450</v>
-      </c>
-      <c r="F285" t="n">
-        <v>42.0149</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-3190.404551709998</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>50450</v>
-      </c>
-      <c r="C286" t="n">
-        <v>50450</v>
-      </c>
-      <c r="D286" t="n">
-        <v>50450</v>
-      </c>
-      <c r="E286" t="n">
-        <v>50450</v>
-      </c>
-      <c r="F286" t="n">
-        <v>86.2085</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-3190.404551709998</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>50550</v>
-      </c>
-      <c r="C287" t="n">
-        <v>50550</v>
-      </c>
-      <c r="D287" t="n">
-        <v>50550</v>
-      </c>
-      <c r="E287" t="n">
-        <v>50550</v>
-      </c>
-      <c r="F287" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-3188.604551709998</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>50450</v>
-      </c>
-      <c r="C288" t="n">
-        <v>50350</v>
-      </c>
-      <c r="D288" t="n">
-        <v>50450</v>
-      </c>
-      <c r="E288" t="n">
-        <v>50350</v>
-      </c>
-      <c r="F288" t="n">
-        <v>117.4214</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-3306.025951709998</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>50400</v>
-      </c>
-      <c r="C289" t="n">
-        <v>50400</v>
-      </c>
-      <c r="D289" t="n">
-        <v>50400</v>
-      </c>
-      <c r="E289" t="n">
-        <v>50250</v>
-      </c>
-      <c r="F289" t="n">
-        <v>43.577</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-3262.448951709998</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>50300</v>
-      </c>
-      <c r="C290" t="n">
-        <v>50300</v>
-      </c>
-      <c r="D290" t="n">
-        <v>50300</v>
-      </c>
-      <c r="E290" t="n">
-        <v>50300</v>
-      </c>
-      <c r="F290" t="n">
-        <v>10.1107</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-3272.559651709998</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>50350</v>
-      </c>
-      <c r="C291" t="n">
-        <v>50350</v>
-      </c>
-      <c r="D291" t="n">
-        <v>50350</v>
-      </c>
-      <c r="E291" t="n">
-        <v>50350</v>
-      </c>
-      <c r="F291" t="n">
-        <v>6.6129</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-3265.946751709998</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>50350</v>
-      </c>
-      <c r="C292" t="n">
-        <v>50350</v>
-      </c>
-      <c r="D292" t="n">
-        <v>50350</v>
-      </c>
-      <c r="E292" t="n">
-        <v>50350</v>
-      </c>
-      <c r="F292" t="n">
-        <v>43.4948</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-3265.946751709998</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>50250</v>
-      </c>
-      <c r="C293" t="n">
-        <v>50250</v>
-      </c>
-      <c r="D293" t="n">
-        <v>50300</v>
-      </c>
-      <c r="E293" t="n">
-        <v>50250</v>
-      </c>
-      <c r="F293" t="n">
-        <v>258.96651431</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-3524.913266019998</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10333,11 +10315,13 @@
         <v>-3637.559666019999</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>50250</v>
+      </c>
       <c r="J294" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10372,13 +10356,11 @@
         <v>-3623.452066019999</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>50100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10413,13 +10395,13 @@
         <v>-3607.803766019999</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>50300</v>
       </c>
       <c r="J296" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10458,7 +10440,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10497,7 +10479,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10536,7 +10518,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10575,7 +10557,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10614,7 +10596,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10653,7 +10635,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10692,7 +10674,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10727,11 +10709,11 @@
         <v>-3476.029266019999</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10766,11 +10748,11 @@
         <v>-3466.57926602</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10809,7 +10791,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10848,7 +10830,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10887,7 +10869,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10926,7 +10908,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10965,7 +10947,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11004,7 +10986,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11039,11 +11021,11 @@
         <v>-3451.98956602</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11078,11 +11060,11 @@
         <v>-3451.98956602</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11117,11 +11099,11 @@
         <v>-3431.98956602</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11156,11 +11138,11 @@
         <v>-3458.04876602</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11195,11 +11177,11 @@
         <v>-3458.04876602</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11234,11 +11216,11 @@
         <v>-3458.04876602</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11277,7 +11259,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11312,11 +11294,11 @@
         <v>-3032.95016602</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11351,11 +11333,11 @@
         <v>-3032.95016602</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11390,11 +11372,11 @@
         <v>-2987.51806602</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11429,11 +11411,11 @@
         <v>-2987.51806602</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11468,11 +11450,11 @@
         <v>-2987.51806602</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11507,11 +11489,11 @@
         <v>-3031.29316602</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11546,11 +11528,11 @@
         <v>-3031.29316602</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11585,11 +11567,11 @@
         <v>-3027.402766019999</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11624,11 +11606,11 @@
         <v>-3027.402766019999</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11663,11 +11645,11 @@
         <v>-3023.38597183</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11702,11 +11684,11 @@
         <v>-3007.619971829999</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11741,11 +11723,11 @@
         <v>-3007.619971829999</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11784,7 +11766,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11819,11 +11801,11 @@
         <v>-2582.45927183</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11858,11 +11840,11 @@
         <v>-2560.20147183</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11897,11 +11879,11 @@
         <v>-2560.20147183</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11936,11 +11918,11 @@
         <v>-2963.37197183</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11975,11 +11957,11 @@
         <v>-2963.37197183</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12014,11 +11996,11 @@
         <v>-3061.6311401</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12053,11 +12035,11 @@
         <v>-2909.8025401</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12096,7 +12078,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12135,7 +12117,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12174,7 +12156,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12213,7 +12195,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12252,7 +12234,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12291,7 +12273,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12326,11 +12308,11 @@
         <v>-2971.5860401</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12369,7 +12351,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12408,7 +12390,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12443,11 +12425,11 @@
         <v>-2924.6075401</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12486,7 +12468,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12525,7 +12507,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12564,7 +12546,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12603,7 +12585,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12642,7 +12624,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12681,7 +12663,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12720,7 +12702,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12759,7 +12741,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12798,7 +12780,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12837,7 +12819,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12876,7 +12858,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12915,7 +12897,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12954,7 +12936,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12993,7 +12975,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13032,7 +13014,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13071,7 +13053,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13106,11 +13088,11 @@
         <v>-2474.959044910001</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13149,7 +13131,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13188,7 +13170,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13227,7 +13209,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13266,7 +13248,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13305,7 +13287,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13344,7 +13326,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13383,7 +13365,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13422,7 +13404,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13461,7 +13443,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13500,7 +13482,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13539,7 +13521,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13574,646 +13556,760 @@
         <v>-2440.440244910001</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>52600</v>
+      </c>
+      <c r="C378" t="n">
+        <v>53000</v>
+      </c>
+      <c r="D378" t="n">
+        <v>53200</v>
+      </c>
+      <c r="E378" t="n">
+        <v>52600</v>
+      </c>
+      <c r="F378" t="n">
+        <v>230.3346</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-2210.105644910001</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>53150</v>
+      </c>
+      <c r="C379" t="n">
+        <v>52900</v>
+      </c>
+      <c r="D379" t="n">
+        <v>53200</v>
+      </c>
+      <c r="E379" t="n">
+        <v>52800</v>
+      </c>
+      <c r="F379" t="n">
+        <v>766.07018399</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-2976.175828900001</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>53050</v>
+      </c>
+      <c r="C380" t="n">
+        <v>53100</v>
+      </c>
+      <c r="D380" t="n">
+        <v>53150</v>
+      </c>
+      <c r="E380" t="n">
+        <v>53050</v>
+      </c>
+      <c r="F380" t="n">
+        <v>367.12440376</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-2609.051425140001</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>53000</v>
+      </c>
+      <c r="C381" t="n">
+        <v>52900</v>
+      </c>
+      <c r="D381" t="n">
+        <v>53000</v>
+      </c>
+      <c r="E381" t="n">
+        <v>52900</v>
+      </c>
+      <c r="F381" t="n">
+        <v>307.2951</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-2916.346525140001</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>52800</v>
+      </c>
+      <c r="C382" t="n">
+        <v>52700</v>
+      </c>
+      <c r="D382" t="n">
+        <v>52800</v>
+      </c>
+      <c r="E382" t="n">
+        <v>52700</v>
+      </c>
+      <c r="F382" t="n">
+        <v>80.7383</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-2997.084825140001</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>52700</v>
+      </c>
+      <c r="C383" t="n">
+        <v>52750</v>
+      </c>
+      <c r="D383" t="n">
+        <v>52750</v>
+      </c>
+      <c r="E383" t="n">
+        <v>52650</v>
+      </c>
+      <c r="F383" t="n">
+        <v>334.0629</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-2663.021925140001</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>52750</v>
+      </c>
+      <c r="C384" t="n">
+        <v>52700</v>
+      </c>
+      <c r="D384" t="n">
+        <v>52950</v>
+      </c>
+      <c r="E384" t="n">
+        <v>52700</v>
+      </c>
+      <c r="F384" t="n">
+        <v>472.8605</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-3135.882425140001</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>52850</v>
+      </c>
+      <c r="C385" t="n">
+        <v>52950</v>
+      </c>
+      <c r="D385" t="n">
+        <v>52950</v>
+      </c>
+      <c r="E385" t="n">
+        <v>52850</v>
+      </c>
+      <c r="F385" t="n">
+        <v>5.7119</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-3130.170525140001</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>53000</v>
+      </c>
+      <c r="C386" t="n">
+        <v>53000</v>
+      </c>
+      <c r="D386" t="n">
+        <v>53000</v>
+      </c>
+      <c r="E386" t="n">
+        <v>53000</v>
+      </c>
+      <c r="F386" t="n">
+        <v>13.9101</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-3116.260425140001</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>52850</v>
+      </c>
+      <c r="C387" t="n">
+        <v>52850</v>
+      </c>
+      <c r="D387" t="n">
+        <v>52850</v>
+      </c>
+      <c r="E387" t="n">
+        <v>52850</v>
+      </c>
+      <c r="F387" t="n">
+        <v>4.3004</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-3120.560825140001</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>52900</v>
+      </c>
+      <c r="C388" t="n">
+        <v>52900</v>
+      </c>
+      <c r="D388" t="n">
+        <v>52900</v>
+      </c>
+      <c r="E388" t="n">
+        <v>52900</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0.85939508</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-3119.701430060001</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>52900</v>
+      </c>
+      <c r="C389" t="n">
+        <v>52900</v>
+      </c>
+      <c r="D389" t="n">
+        <v>52900</v>
+      </c>
+      <c r="E389" t="n">
+        <v>52900</v>
+      </c>
+      <c r="F389" t="n">
+        <v>23.2057</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-3119.701430060001</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>53000</v>
+      </c>
+      <c r="C390" t="n">
+        <v>52950</v>
+      </c>
+      <c r="D390" t="n">
+        <v>53050</v>
+      </c>
+      <c r="E390" t="n">
+        <v>52950</v>
+      </c>
+      <c r="F390" t="n">
+        <v>28.1482</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-3091.553230060001</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>53100</v>
+      </c>
+      <c r="C391" t="n">
+        <v>52900</v>
+      </c>
+      <c r="D391" t="n">
+        <v>53100</v>
+      </c>
+      <c r="E391" t="n">
+        <v>52900</v>
+      </c>
+      <c r="F391" t="n">
+        <v>89.0882</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-3180.641430060001</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>52900</v>
+      </c>
+      <c r="C392" t="n">
+        <v>52900</v>
+      </c>
+      <c r="D392" t="n">
+        <v>52900</v>
+      </c>
+      <c r="E392" t="n">
+        <v>52900</v>
+      </c>
+      <c r="F392" t="n">
+        <v>1.985</v>
+      </c>
+      <c r="G392" t="n">
+        <v>-3180.641430060001</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>53000</v>
+      </c>
+      <c r="C393" t="n">
+        <v>53000</v>
+      </c>
+      <c r="D393" t="n">
+        <v>53000</v>
+      </c>
+      <c r="E393" t="n">
+        <v>53000</v>
+      </c>
+      <c r="F393" t="n">
+        <v>14.9682</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-3165.673230060002</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>52950</v>
+      </c>
+      <c r="C394" t="n">
+        <v>53000</v>
+      </c>
+      <c r="D394" t="n">
+        <v>53100</v>
+      </c>
+      <c r="E394" t="n">
+        <v>52950</v>
+      </c>
+      <c r="F394" t="n">
+        <v>51.286</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-3165.673230060002</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>53000</v>
+      </c>
+      <c r="C395" t="n">
+        <v>52900</v>
+      </c>
+      <c r="D395" t="n">
+        <v>53000</v>
+      </c>
+      <c r="E395" t="n">
+        <v>52900</v>
+      </c>
+      <c r="F395" t="n">
+        <v>125.7736</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-3291.446830060002</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>52900</v>
+      </c>
+      <c r="C396" t="n">
+        <v>52850</v>
+      </c>
+      <c r="D396" t="n">
+        <v>52900</v>
+      </c>
+      <c r="E396" t="n">
+        <v>52850</v>
+      </c>
+      <c r="F396" t="n">
+        <v>13.3943</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-3304.841130060001</v>
+      </c>
+      <c r="H396" t="n">
+        <v>2</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K396" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L377" t="n">
-        <v>1.042713717693837</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>52600</v>
-      </c>
-      <c r="C378" t="n">
-        <v>53000</v>
-      </c>
-      <c r="D378" t="n">
-        <v>53200</v>
-      </c>
-      <c r="E378" t="n">
-        <v>52600</v>
-      </c>
-      <c r="F378" t="n">
-        <v>230.3346</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-2210.105644910001</v>
-      </c>
-      <c r="H378" t="n">
-        <v>3</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>53150</v>
-      </c>
-      <c r="C379" t="n">
-        <v>52900</v>
-      </c>
-      <c r="D379" t="n">
-        <v>53200</v>
-      </c>
-      <c r="E379" t="n">
-        <v>52800</v>
-      </c>
-      <c r="F379" t="n">
-        <v>766.07018399</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-2976.175828900001</v>
-      </c>
-      <c r="H379" t="n">
-        <v>3</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>53050</v>
-      </c>
-      <c r="C380" t="n">
-        <v>53100</v>
-      </c>
-      <c r="D380" t="n">
-        <v>53150</v>
-      </c>
-      <c r="E380" t="n">
-        <v>53050</v>
-      </c>
-      <c r="F380" t="n">
-        <v>367.12440376</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-2609.051425140001</v>
-      </c>
-      <c r="H380" t="n">
-        <v>3</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>53000</v>
-      </c>
-      <c r="C381" t="n">
-        <v>52900</v>
-      </c>
-      <c r="D381" t="n">
-        <v>53000</v>
-      </c>
-      <c r="E381" t="n">
-        <v>52900</v>
-      </c>
-      <c r="F381" t="n">
-        <v>307.2951</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-2916.346525140001</v>
-      </c>
-      <c r="H381" t="n">
-        <v>3</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>52800</v>
-      </c>
-      <c r="C382" t="n">
-        <v>52700</v>
-      </c>
-      <c r="D382" t="n">
-        <v>52800</v>
-      </c>
-      <c r="E382" t="n">
-        <v>52700</v>
-      </c>
-      <c r="F382" t="n">
-        <v>80.7383</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-2997.084825140001</v>
-      </c>
-      <c r="H382" t="n">
-        <v>3</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>52700</v>
-      </c>
-      <c r="C383" t="n">
-        <v>52750</v>
-      </c>
-      <c r="D383" t="n">
-        <v>52750</v>
-      </c>
-      <c r="E383" t="n">
-        <v>52650</v>
-      </c>
-      <c r="F383" t="n">
-        <v>334.0629</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-2663.021925140001</v>
-      </c>
-      <c r="H383" t="n">
-        <v>3</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>52750</v>
-      </c>
-      <c r="C384" t="n">
-        <v>52700</v>
-      </c>
-      <c r="D384" t="n">
-        <v>52950</v>
-      </c>
-      <c r="E384" t="n">
-        <v>52700</v>
-      </c>
-      <c r="F384" t="n">
-        <v>472.8605</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-3135.882425140001</v>
-      </c>
-      <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>52850</v>
-      </c>
-      <c r="C385" t="n">
-        <v>52950</v>
-      </c>
-      <c r="D385" t="n">
-        <v>52950</v>
-      </c>
-      <c r="E385" t="n">
-        <v>52850</v>
-      </c>
-      <c r="F385" t="n">
-        <v>5.7119</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-3130.170525140001</v>
-      </c>
-      <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>53000</v>
-      </c>
-      <c r="C386" t="n">
-        <v>53000</v>
-      </c>
-      <c r="D386" t="n">
-        <v>53000</v>
-      </c>
-      <c r="E386" t="n">
-        <v>53000</v>
-      </c>
-      <c r="F386" t="n">
-        <v>13.9101</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-3116.260425140001</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>52850</v>
-      </c>
-      <c r="C387" t="n">
-        <v>52850</v>
-      </c>
-      <c r="D387" t="n">
-        <v>52850</v>
-      </c>
-      <c r="E387" t="n">
-        <v>52850</v>
-      </c>
-      <c r="F387" t="n">
-        <v>4.3004</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-3120.560825140001</v>
-      </c>
-      <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>52900</v>
-      </c>
-      <c r="C388" t="n">
-        <v>52900</v>
-      </c>
-      <c r="D388" t="n">
-        <v>52900</v>
-      </c>
-      <c r="E388" t="n">
-        <v>52900</v>
-      </c>
-      <c r="F388" t="n">
-        <v>0.85939508</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-3119.701430060001</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>52900</v>
-      </c>
-      <c r="C389" t="n">
-        <v>52900</v>
-      </c>
-      <c r="D389" t="n">
-        <v>52900</v>
-      </c>
-      <c r="E389" t="n">
-        <v>52900</v>
-      </c>
-      <c r="F389" t="n">
-        <v>23.2057</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-3119.701430060001</v>
-      </c>
-      <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>53000</v>
-      </c>
-      <c r="C390" t="n">
-        <v>52950</v>
-      </c>
-      <c r="D390" t="n">
-        <v>53050</v>
-      </c>
-      <c r="E390" t="n">
-        <v>52950</v>
-      </c>
-      <c r="F390" t="n">
-        <v>28.1482</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-3091.553230060001</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>53100</v>
-      </c>
-      <c r="C391" t="n">
-        <v>52900</v>
-      </c>
-      <c r="D391" t="n">
-        <v>53100</v>
-      </c>
-      <c r="E391" t="n">
-        <v>52900</v>
-      </c>
-      <c r="F391" t="n">
-        <v>89.0882</v>
-      </c>
-      <c r="G391" t="n">
-        <v>-3180.641430060001</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>52900</v>
-      </c>
-      <c r="C392" t="n">
-        <v>52900</v>
-      </c>
-      <c r="D392" t="n">
-        <v>52900</v>
-      </c>
-      <c r="E392" t="n">
-        <v>52900</v>
-      </c>
-      <c r="F392" t="n">
-        <v>1.985</v>
-      </c>
-      <c r="G392" t="n">
-        <v>-3180.641430060001</v>
-      </c>
-      <c r="H392" t="n">
-        <v>3</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>53000</v>
-      </c>
-      <c r="C393" t="n">
-        <v>53000</v>
-      </c>
-      <c r="D393" t="n">
-        <v>53000</v>
-      </c>
-      <c r="E393" t="n">
-        <v>53000</v>
-      </c>
-      <c r="F393" t="n">
-        <v>14.9682</v>
-      </c>
-      <c r="G393" t="n">
-        <v>-3165.673230060002</v>
-      </c>
-      <c r="H393" t="n">
-        <v>3</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>52950</v>
-      </c>
-      <c r="C394" t="n">
-        <v>53000</v>
-      </c>
-      <c r="D394" t="n">
-        <v>53100</v>
-      </c>
-      <c r="E394" t="n">
-        <v>52950</v>
-      </c>
-      <c r="F394" t="n">
-        <v>51.286</v>
-      </c>
-      <c r="G394" t="n">
-        <v>-3165.673230060002</v>
-      </c>
-      <c r="H394" t="n">
-        <v>3</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>53000</v>
-      </c>
-      <c r="C395" t="n">
-        <v>52900</v>
-      </c>
-      <c r="D395" t="n">
-        <v>53000</v>
-      </c>
-      <c r="E395" t="n">
-        <v>52900</v>
-      </c>
-      <c r="F395" t="n">
-        <v>125.7736</v>
-      </c>
-      <c r="G395" t="n">
-        <v>-3291.446830060002</v>
-      </c>
-      <c r="H395" t="n">
-        <v>3</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>52900</v>
-      </c>
-      <c r="C396" t="n">
-        <v>52850</v>
-      </c>
-      <c r="D396" t="n">
-        <v>52900</v>
-      </c>
-      <c r="E396" t="n">
-        <v>52850</v>
-      </c>
-      <c r="F396" t="n">
-        <v>13.3943</v>
-      </c>
-      <c r="G396" t="n">
-        <v>-3304.841130060001</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
-        <v>1</v>
+        <v>1.043611111111111</v>
       </c>
       <c r="M396" t="inlineStr"/>
     </row>
@@ -14273,7 +14369,7 @@
         <v>-3491.602530060002</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14339,7 +14435,7 @@
         <v>-3418.289030060002</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14669,7 +14765,7 @@
         <v>-3195.386185970001</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14702,7 +14798,7 @@
         <v>-3195.376185970001</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14735,7 +14831,7 @@
         <v>-3195.376185970001</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14768,7 +14864,7 @@
         <v>-3195.376185970001</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14801,7 +14897,7 @@
         <v>-3256.149285970001</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14834,7 +14930,7 @@
         <v>-3255.145085970001</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14867,7 +14963,7 @@
         <v>-3255.145085970001</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14900,7 +14996,7 @@
         <v>-3255.391085970001</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14933,7 +15029,7 @@
         <v>-3344.544485970001</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14966,7 +15062,7 @@
         <v>-3349.223085970002</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14999,7 +15095,7 @@
         <v>-3349.223085970002</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15032,7 +15128,7 @@
         <v>-3492.277185970001</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15065,7 +15161,7 @@
         <v>-3480.837685970002</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15098,7 +15194,7 @@
         <v>-3382.052785970001</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15131,7 +15227,7 @@
         <v>-3383.052785970001</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15164,7 +15260,7 @@
         <v>-3384.052785970001</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15175,6 +15271,6 @@
       <c r="M425" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest LTC.xlsx
+++ b/BackTest/2020-01-11 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3850,7 +3850,7 @@
         <v>-736.8339804799996</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-746.2853804799995</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-695.2952804799995</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-458.0075778699995</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-435.1681778699995</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-412.0966778699995</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-412.0966778699995</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-412.0966778699995</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-412.0966778699995</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-455.2714778699995</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-457.0163778699995</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-457.7900778699995</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-469.7801778699995</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-469.7801778699995</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-465.8319211799995</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1588.779651709999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -8701,14 +8701,10 @@
         <v>-3098.645151709998</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>50300</v>
-      </c>
-      <c r="J252" t="n">
-        <v>50300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
@@ -8738,19 +8734,11 @@
         <v>-3098.645151709998</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>50300</v>
-      </c>
-      <c r="J253" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8779,19 +8767,11 @@
         <v>-3105.490651709998</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>50300</v>
-      </c>
-      <c r="J254" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8820,14 +8800,10 @@
         <v>-3105.490651709998</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>50200</v>
-      </c>
-      <c r="J255" t="n">
-        <v>50200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
@@ -8857,19 +8833,11 @@
         <v>-3101.490651709998</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>50200</v>
-      </c>
-      <c r="J256" t="n">
-        <v>50200</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8898,19 +8866,11 @@
         <v>-3101.490651709998</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>50250</v>
-      </c>
-      <c r="J257" t="n">
-        <v>50200</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8939,14 +8899,10 @@
         <v>-3104.090751709998</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>50250</v>
-      </c>
-      <c r="J258" t="n">
-        <v>50250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
@@ -8982,13 +8938,9 @@
         <v>50200</v>
       </c>
       <c r="J259" t="n">
-        <v>50250</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>50200</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9023,7 +8975,7 @@
         <v>50300</v>
       </c>
       <c r="J260" t="n">
-        <v>50250</v>
+        <v>50200</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9064,9 +9016,13 @@
         <v>50250</v>
       </c>
       <c r="J261" t="n">
-        <v>50250</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
+        <v>50200</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9101,13 +9057,9 @@
         <v>50350</v>
       </c>
       <c r="J262" t="n">
-        <v>50250</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>50350</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9142,7 +9094,7 @@
         <v>50350</v>
       </c>
       <c r="J263" t="n">
-        <v>50250</v>
+        <v>50350</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9183,9 +9135,13 @@
         <v>50300</v>
       </c>
       <c r="J264" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
+        <v>50350</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9220,13 +9176,9 @@
         <v>50350</v>
       </c>
       <c r="J265" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>50350</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9261,7 +9213,7 @@
         <v>50300</v>
       </c>
       <c r="J266" t="n">
-        <v>50300</v>
+        <v>50350</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9302,9 +9254,13 @@
         <v>50300</v>
       </c>
       <c r="J267" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
+        <v>50350</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9341,11 +9297,7 @@
       <c r="J268" t="n">
         <v>50300</v>
       </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9421,9 +9373,13 @@
         <v>50350</v>
       </c>
       <c r="J270" t="n">
-        <v>50350</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
+        <v>50300</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9458,11 +9414,11 @@
         <v>50500</v>
       </c>
       <c r="J271" t="n">
-        <v>50350</v>
+        <v>50300</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9493,17 +9449,15 @@
         <v>-3098.814751709998</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>50500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>50350</v>
+        <v>50300</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9540,9 +9494,13 @@
         <v>50450</v>
       </c>
       <c r="J273" t="n">
-        <v>50450</v>
-      </c>
-      <c r="K273" t="inlineStr"/>
+        <v>50300</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9571,17 +9529,15 @@
         <v>-3098.389651709998</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>50450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>50450</v>
+        <v>50300</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L274" t="n">
@@ -9612,17 +9568,15 @@
         <v>-3098.389651709998</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>50550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>50450</v>
+        <v>50300</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -9653,15 +9607,17 @@
         <v>-3098.389651709998</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>50550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>50550</v>
-      </c>
-      <c r="K276" t="inlineStr"/>
+        <v>50300</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9690,17 +9646,15 @@
         <v>-3148.389651709998</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>50550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>50550</v>
+        <v>50300</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L277" t="n">
@@ -9731,17 +9685,15 @@
         <v>-3148.389651709998</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>50500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>50550</v>
+        <v>50300</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L278" t="n">
@@ -9775,8 +9727,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9808,8 +9766,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9841,8 +9805,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9871,15 +9841,17 @@
         <v>-3148.389651709998</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>50500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>50500</v>
-      </c>
-      <c r="K282" t="inlineStr"/>
+        <v>50300</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9908,17 +9880,15 @@
         <v>-3148.389651709998</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>50500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>50500</v>
+        <v>50300</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L283" t="n">
@@ -9949,17 +9919,15 @@
         <v>-3148.389651709998</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>50500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>50500</v>
+        <v>50300</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L284" t="n">
@@ -9993,8 +9961,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10026,8 +10000,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10059,8 +10039,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10092,8 +10078,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10122,11 +10114,19 @@
         <v>-3262.448951709998</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>50350</v>
+      </c>
+      <c r="J289" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10161,9 +10161,13 @@
         <v>50400</v>
       </c>
       <c r="J290" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K290" t="inlineStr"/>
+        <v>50300</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10198,11 +10202,11 @@
         <v>50300</v>
       </c>
       <c r="J291" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L291" t="n">
@@ -10239,11 +10243,11 @@
         <v>50350</v>
       </c>
       <c r="J292" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L292" t="n">
@@ -10280,11 +10284,11 @@
         <v>50350</v>
       </c>
       <c r="J293" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L293" t="n">
@@ -10321,7 +10325,7 @@
         <v>50250</v>
       </c>
       <c r="J294" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10356,11 +10360,13 @@
         <v>-3623.452066019999</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>50100</v>
+      </c>
       <c r="J295" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10401,7 +10407,7 @@
         <v>50300</v>
       </c>
       <c r="J296" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10436,11 +10442,13 @@
         <v>-3607.281266019999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>50500</v>
+      </c>
       <c r="J297" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10475,11 +10483,13 @@
         <v>-3605.281266019999</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>50550</v>
+      </c>
       <c r="J298" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10518,7 +10528,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10557,7 +10567,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10596,7 +10606,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10635,7 +10645,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10674,7 +10684,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10713,7 +10723,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10752,7 +10762,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10791,7 +10801,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10830,7 +10840,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10869,7 +10879,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10908,7 +10918,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10947,7 +10957,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10986,7 +10996,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11025,7 +11035,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11064,7 +11074,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11103,7 +11113,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11142,7 +11152,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11181,7 +11191,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11220,7 +11230,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11259,7 +11269,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11298,7 +11308,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11337,7 +11347,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11372,19 +11382,19 @@
         <v>-2987.51806602</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L321" t="n">
-        <v>1</v>
+        <v>1.021838966202783</v>
       </c>
       <c r="M321" t="inlineStr"/>
     </row>
@@ -11411,17 +11421,11 @@
         <v>-2987.51806602</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11450,17 +11454,11 @@
         <v>-2987.51806602</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11489,17 +11487,11 @@
         <v>-3031.29316602</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11528,17 +11520,11 @@
         <v>-3031.29316602</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11567,17 +11553,11 @@
         <v>-3027.402766019999</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11606,17 +11586,11 @@
         <v>-3027.402766019999</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11645,17 +11619,11 @@
         <v>-3023.38597183</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11684,17 +11652,11 @@
         <v>-3007.619971829999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11723,17 +11685,11 @@
         <v>-3007.619971829999</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11762,17 +11718,11 @@
         <v>-2651.830371829999</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11801,17 +11751,11 @@
         <v>-2582.45927183</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11840,17 +11784,11 @@
         <v>-2560.20147183</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11879,17 +11817,11 @@
         <v>-2560.20147183</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11918,17 +11850,11 @@
         <v>-2963.37197183</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11957,17 +11883,11 @@
         <v>-2963.37197183</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11996,17 +11916,11 @@
         <v>-3061.6311401</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12035,17 +11949,11 @@
         <v>-2909.8025401</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12074,17 +11982,11 @@
         <v>-3009.8025401</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12113,17 +12015,11 @@
         <v>-3119.3868401</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12152,17 +12048,11 @@
         <v>-2978.6998401</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12191,17 +12081,11 @@
         <v>-2978.6998401</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12230,17 +12114,11 @@
         <v>-2978.6998401</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12269,17 +12147,11 @@
         <v>-2978.6998401</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12308,17 +12180,11 @@
         <v>-2971.5860401</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12347,17 +12213,11 @@
         <v>-2957.1802401</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12386,17 +12246,11 @@
         <v>-2924.6075401</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12425,17 +12279,11 @@
         <v>-2924.6075401</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12464,17 +12312,11 @@
         <v>-2924.6075401</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12506,14 +12348,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12545,14 +12381,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12584,14 +12414,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12623,14 +12447,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12662,14 +12480,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12698,17 +12510,11 @@
         <v>-2715.15684491</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12737,17 +12543,11 @@
         <v>-2727.25684491</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12776,17 +12576,11 @@
         <v>-2727.25684491</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12815,17 +12609,11 @@
         <v>-2719.16944491</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12854,17 +12642,11 @@
         <v>-2782.82744491</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12893,17 +12675,11 @@
         <v>-2782.82744491</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12932,17 +12708,11 @@
         <v>-2788.19104491</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12974,14 +12744,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13013,14 +12777,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13052,14 +12810,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13091,14 +12843,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13130,14 +12876,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13169,14 +12909,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13208,14 +12942,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13247,14 +12975,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13286,14 +13008,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13325,14 +13041,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13364,14 +13074,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13403,14 +13107,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13442,14 +13140,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13481,14 +13173,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13520,14 +13206,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13559,14 +13239,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13598,14 +13272,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13637,14 +13305,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13676,14 +13338,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13715,14 +13371,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13754,14 +13404,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13793,14 +13437,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13832,14 +13470,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13871,14 +13503,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13910,14 +13536,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13949,14 +13569,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13988,14 +13602,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14027,14 +13635,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14066,14 +13668,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14105,14 +13701,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14144,14 +13734,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14183,14 +13767,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14222,14 +13800,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14261,14 +13833,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14297,19 +13863,13 @@
         <v>-3304.841130060001</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>50400</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
-        <v>1.043611111111111</v>
+        <v>1</v>
       </c>
       <c r="M396" t="inlineStr"/>
     </row>
@@ -14369,7 +13929,7 @@
         <v>-3491.602530060002</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14435,7 +13995,7 @@
         <v>-3418.289030060002</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14765,7 +14325,7 @@
         <v>-3195.386185970001</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14798,7 +14358,7 @@
         <v>-3195.376185970001</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14831,7 +14391,7 @@
         <v>-3195.376185970001</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14864,7 +14424,7 @@
         <v>-3195.376185970001</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14897,7 +14457,7 @@
         <v>-3256.149285970001</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14930,7 +14490,7 @@
         <v>-3255.145085970001</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14963,7 +14523,7 @@
         <v>-3255.145085970001</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14996,7 +14556,7 @@
         <v>-3255.391085970001</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15029,7 +14589,7 @@
         <v>-3344.544485970001</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15062,7 +14622,7 @@
         <v>-3349.223085970002</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15095,7 +14655,7 @@
         <v>-3349.223085970002</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15128,7 +14688,7 @@
         <v>-3492.277185970001</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15161,7 +14721,7 @@
         <v>-3480.837685970002</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15194,7 +14754,7 @@
         <v>-3382.052785970001</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15227,7 +14787,7 @@
         <v>-3383.052785970001</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15260,7 +14820,7 @@
         <v>-3384.052785970001</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15271,6 +14831,6 @@
       <c r="M425" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest LTC.xlsx
+++ b/BackTest/2020-01-11 BackTest LTC.xlsx
@@ -3784,7 +3784,7 @@
         <v>-713.1572804799996</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-736.8339804799996</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-736.8339804799996</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-738.8339804799996</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-638.4387804799995</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-738.4387804799995</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-746.2853804799995</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-746.2853804799995</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-745.2952804799995</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-745.2952804799995</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-695.2952804799995</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-695.2952804799995</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-390.1315778699995</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-401.6228778699996</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-456.4327778699995</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-458.0075778699995</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-458.0075778699995</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-458.0075778699995</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-375.7066778699995</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -8899,10 +8899,14 @@
         <v>-3104.090751709998</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>50250</v>
+      </c>
+      <c r="J258" t="n">
+        <v>50250</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
@@ -8938,9 +8942,13 @@
         <v>50200</v>
       </c>
       <c r="J259" t="n">
-        <v>50200</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
+        <v>50250</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8975,7 +8983,7 @@
         <v>50300</v>
       </c>
       <c r="J260" t="n">
-        <v>50200</v>
+        <v>50250</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9016,50 +9024,50 @@
         <v>50250</v>
       </c>
       <c r="J261" t="n">
-        <v>50200</v>
-      </c>
-      <c r="K261" t="inlineStr">
+        <v>50250</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>50350</v>
+      </c>
+      <c r="C262" t="n">
+        <v>50350</v>
+      </c>
+      <c r="D262" t="n">
+        <v>50350</v>
+      </c>
+      <c r="E262" t="n">
+        <v>50350</v>
+      </c>
+      <c r="F262" t="n">
+        <v>14.9198</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-3106.842651709998</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>50350</v>
+      </c>
+      <c r="J262" t="n">
+        <v>50250</v>
+      </c>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>50350</v>
-      </c>
-      <c r="C262" t="n">
-        <v>50350</v>
-      </c>
-      <c r="D262" t="n">
-        <v>50350</v>
-      </c>
-      <c r="E262" t="n">
-        <v>50350</v>
-      </c>
-      <c r="F262" t="n">
-        <v>14.9198</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-3106.842651709998</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>50350</v>
-      </c>
-      <c r="J262" t="n">
-        <v>50350</v>
-      </c>
-      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9094,7 +9102,7 @@
         <v>50350</v>
       </c>
       <c r="J263" t="n">
-        <v>50350</v>
+        <v>50250</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9135,50 +9143,50 @@
         <v>50300</v>
       </c>
       <c r="J264" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>50300</v>
+      </c>
+      <c r="C265" t="n">
+        <v>50300</v>
+      </c>
+      <c r="D265" t="n">
+        <v>50300</v>
+      </c>
+      <c r="E265" t="n">
+        <v>50300</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-3147.707551709998</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
         <v>50350</v>
       </c>
-      <c r="K264" t="inlineStr">
+      <c r="J265" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>50300</v>
-      </c>
-      <c r="C265" t="n">
-        <v>50300</v>
-      </c>
-      <c r="D265" t="n">
-        <v>50300</v>
-      </c>
-      <c r="E265" t="n">
-        <v>50300</v>
-      </c>
-      <c r="F265" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-3147.707551709998</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>50350</v>
-      </c>
-      <c r="J265" t="n">
-        <v>50350</v>
-      </c>
-      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9213,7 +9221,7 @@
         <v>50300</v>
       </c>
       <c r="J266" t="n">
-        <v>50350</v>
+        <v>50300</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9254,50 +9262,50 @@
         <v>50300</v>
       </c>
       <c r="J267" t="n">
-        <v>50350</v>
-      </c>
-      <c r="K267" t="inlineStr">
+        <v>50300</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>50250</v>
+      </c>
+      <c r="C268" t="n">
+        <v>50250</v>
+      </c>
+      <c r="D268" t="n">
+        <v>50250</v>
+      </c>
+      <c r="E268" t="n">
+        <v>50250</v>
+      </c>
+      <c r="F268" t="n">
+        <v>27.871</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-3175.578551709998</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>50300</v>
+      </c>
+      <c r="J268" t="n">
+        <v>50300</v>
+      </c>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>50250</v>
-      </c>
-      <c r="C268" t="n">
-        <v>50250</v>
-      </c>
-      <c r="D268" t="n">
-        <v>50250</v>
-      </c>
-      <c r="E268" t="n">
-        <v>50250</v>
-      </c>
-      <c r="F268" t="n">
-        <v>27.871</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-3175.578551709998</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>50300</v>
-      </c>
-      <c r="J268" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9373,602 +9381,600 @@
         <v>50350</v>
       </c>
       <c r="J270" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K270" t="inlineStr">
+        <v>50350</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C271" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D271" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E271" t="n">
+        <v>50450</v>
+      </c>
+      <c r="F271" t="n">
+        <v>104.4035</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-3097.013151709998</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J271" t="n">
+        <v>50350</v>
+      </c>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C271" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D271" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E271" t="n">
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
         <v>50450</v>
       </c>
-      <c r="F271" t="n">
-        <v>104.4035</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-3097.013151709998</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>50500</v>
-      </c>
-      <c r="J271" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K271" t="inlineStr">
+      <c r="C272" t="n">
+        <v>50450</v>
+      </c>
+      <c r="D272" t="n">
+        <v>50450</v>
+      </c>
+      <c r="E272" t="n">
+        <v>50450</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1.8016</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-3098.814751709998</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J272" t="n">
+        <v>50350</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>50450</v>
+      </c>
+      <c r="C273" t="n">
+        <v>50450</v>
+      </c>
+      <c r="D273" t="n">
+        <v>50450</v>
+      </c>
+      <c r="E273" t="n">
+        <v>50450</v>
+      </c>
+      <c r="F273" t="n">
+        <v>20</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-3098.814751709998</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>50450</v>
+      </c>
+      <c r="J273" t="n">
+        <v>50450</v>
+      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>50550</v>
+      </c>
+      <c r="C274" t="n">
+        <v>50550</v>
+      </c>
+      <c r="D274" t="n">
+        <v>50550</v>
+      </c>
+      <c r="E274" t="n">
+        <v>50550</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.4251</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-3098.389651709998</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>50450</v>
+      </c>
+      <c r="J274" t="n">
+        <v>50450</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>50550</v>
+      </c>
+      <c r="C275" t="n">
+        <v>50550</v>
+      </c>
+      <c r="D275" t="n">
+        <v>50550</v>
+      </c>
+      <c r="E275" t="n">
+        <v>50550</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.3503</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-3098.389651709998</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>50550</v>
+      </c>
+      <c r="J275" t="n">
+        <v>50450</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>50550</v>
+      </c>
+      <c r="C276" t="n">
+        <v>50550</v>
+      </c>
+      <c r="D276" t="n">
+        <v>50550</v>
+      </c>
+      <c r="E276" t="n">
+        <v>50550</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1.2542</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-3098.389651709998</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>50550</v>
+      </c>
+      <c r="J276" t="n">
+        <v>50550</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C277" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D277" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E277" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F277" t="n">
+        <v>50</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H277" t="n">
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>50550</v>
+      </c>
+      <c r="J277" t="n">
+        <v>50550</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C278" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D278" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E278" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F278" t="n">
+        <v>3.5758</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J278" t="n">
+        <v>50550</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C279" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D279" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E279" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F279" t="n">
+        <v>46.3114</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H279" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J279" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C280" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D280" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E280" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.5844</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J280" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C281" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D281" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E281" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.5485</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J281" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C282" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D282" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E282" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C283" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D283" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E283" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F283" t="n">
+        <v>6.7682</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J283" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C284" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D284" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E284" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1.7237</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-3148.389651709998</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J284" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C285" t="n">
+        <v>50450</v>
+      </c>
+      <c r="D285" t="n">
+        <v>50500</v>
+      </c>
+      <c r="E285" t="n">
+        <v>50450</v>
+      </c>
+      <c r="F285" t="n">
+        <v>42.0149</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-3190.404551709998</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>50500</v>
+      </c>
+      <c r="J285" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K285" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>50450</v>
-      </c>
-      <c r="C272" t="n">
-        <v>50450</v>
-      </c>
-      <c r="D272" t="n">
-        <v>50450</v>
-      </c>
-      <c r="E272" t="n">
-        <v>50450</v>
-      </c>
-      <c r="F272" t="n">
-        <v>1.8016</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-3098.814751709998</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>50450</v>
-      </c>
-      <c r="C273" t="n">
-        <v>50450</v>
-      </c>
-      <c r="D273" t="n">
-        <v>50450</v>
-      </c>
-      <c r="E273" t="n">
-        <v>50450</v>
-      </c>
-      <c r="F273" t="n">
-        <v>20</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-3098.814751709998</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>50450</v>
-      </c>
-      <c r="J273" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>50550</v>
-      </c>
-      <c r="C274" t="n">
-        <v>50550</v>
-      </c>
-      <c r="D274" t="n">
-        <v>50550</v>
-      </c>
-      <c r="E274" t="n">
-        <v>50550</v>
-      </c>
-      <c r="F274" t="n">
-        <v>0.4251</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-3098.389651709998</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>50550</v>
-      </c>
-      <c r="C275" t="n">
-        <v>50550</v>
-      </c>
-      <c r="D275" t="n">
-        <v>50550</v>
-      </c>
-      <c r="E275" t="n">
-        <v>50550</v>
-      </c>
-      <c r="F275" t="n">
-        <v>0.3503</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-3098.389651709998</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>50550</v>
-      </c>
-      <c r="C276" t="n">
-        <v>50550</v>
-      </c>
-      <c r="D276" t="n">
-        <v>50550</v>
-      </c>
-      <c r="E276" t="n">
-        <v>50550</v>
-      </c>
-      <c r="F276" t="n">
-        <v>1.2542</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-3098.389651709998</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C277" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D277" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E277" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F277" t="n">
-        <v>50</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C278" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D278" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E278" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F278" t="n">
-        <v>3.5758</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C279" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D279" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E279" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F279" t="n">
-        <v>46.3114</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C280" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D280" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E280" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F280" t="n">
-        <v>0.5844</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C281" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D281" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E281" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F281" t="n">
-        <v>0.5485</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C282" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D282" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E282" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F282" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C283" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D283" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E283" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F283" t="n">
-        <v>6.7682</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C284" t="n">
-        <v>50500</v>
-      </c>
-      <c r="D284" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E284" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F284" t="n">
-        <v>1.7237</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-3148.389651709998</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>50500</v>
-      </c>
-      <c r="C285" t="n">
-        <v>50450</v>
-      </c>
-      <c r="D285" t="n">
-        <v>50500</v>
-      </c>
-      <c r="E285" t="n">
-        <v>50450</v>
-      </c>
-      <c r="F285" t="n">
-        <v>42.0149</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-3190.404551709998</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>50300</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9997,11 +10003,13 @@
         <v>-3190.404551709998</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>50450</v>
+      </c>
       <c r="J286" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10036,11 +10044,13 @@
         <v>-3188.604551709998</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>50450</v>
+      </c>
       <c r="J287" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10075,11 +10085,13 @@
         <v>-3306.025951709998</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>50550</v>
+      </c>
       <c r="J288" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10120,7 +10132,7 @@
         <v>50350</v>
       </c>
       <c r="J289" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10161,7 +10173,7 @@
         <v>50400</v>
       </c>
       <c r="J290" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10202,7 +10214,7 @@
         <v>50300</v>
       </c>
       <c r="J291" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10243,7 +10255,7 @@
         <v>50350</v>
       </c>
       <c r="J292" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10284,7 +10296,7 @@
         <v>50350</v>
       </c>
       <c r="J293" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10325,7 +10337,7 @@
         <v>50250</v>
       </c>
       <c r="J294" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10366,7 +10378,7 @@
         <v>50100</v>
       </c>
       <c r="J295" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10407,7 +10419,7 @@
         <v>50300</v>
       </c>
       <c r="J296" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10448,7 +10460,7 @@
         <v>50500</v>
       </c>
       <c r="J297" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10489,7 +10501,7 @@
         <v>50550</v>
       </c>
       <c r="J298" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10524,11 +10536,13 @@
         <v>-3604.281266019999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>50650</v>
+      </c>
       <c r="J299" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10563,11 +10577,13 @@
         <v>-3600.997166019999</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>50700</v>
+      </c>
       <c r="J300" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10602,11 +10618,13 @@
         <v>-3597.317166019999</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>50800</v>
+      </c>
       <c r="J301" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10641,11 +10659,13 @@
         <v>-3630.633466019999</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>50900</v>
+      </c>
       <c r="J302" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10680,11 +10700,13 @@
         <v>-3636.479566019999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>50800</v>
+      </c>
       <c r="J303" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10719,11 +10741,13 @@
         <v>-3476.029266019999</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>50650</v>
+      </c>
       <c r="J304" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10758,11 +10782,13 @@
         <v>-3466.57926602</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>50800</v>
+      </c>
       <c r="J305" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10797,11 +10823,13 @@
         <v>-3466.57926602</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>50900</v>
+      </c>
       <c r="J306" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10836,11 +10864,13 @@
         <v>-3468.338666019999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>50900</v>
+      </c>
       <c r="J307" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10875,11 +10905,13 @@
         <v>-3468.338666019999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>50850</v>
+      </c>
       <c r="J308" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10914,11 +10946,13 @@
         <v>-3462.98956602</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>50850</v>
+      </c>
       <c r="J309" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10953,11 +10987,13 @@
         <v>-3461.98956602</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>51000</v>
+      </c>
       <c r="J310" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10992,11 +11028,13 @@
         <v>-3451.98956602</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>51050</v>
+      </c>
       <c r="J311" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11031,11 +11069,13 @@
         <v>-3451.98956602</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>51100</v>
+      </c>
       <c r="J312" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11070,11 +11110,13 @@
         <v>-3451.98956602</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>51100</v>
+      </c>
       <c r="J313" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11109,11 +11151,13 @@
         <v>-3431.98956602</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>51100</v>
+      </c>
       <c r="J314" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11152,7 +11196,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11191,7 +11235,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11226,11 +11270,13 @@
         <v>-3458.04876602</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>51150</v>
+      </c>
       <c r="J317" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11269,7 +11315,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11308,7 +11354,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11347,7 +11393,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11382,1834 +11428,2164 @@
         <v>-2987.51806602</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>51650</v>
+      </c>
+      <c r="C322" t="n">
+        <v>51650</v>
+      </c>
+      <c r="D322" t="n">
+        <v>51650</v>
+      </c>
+      <c r="E322" t="n">
+        <v>51650</v>
+      </c>
+      <c r="F322" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-2987.51806602</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>51650</v>
+      </c>
+      <c r="C323" t="n">
+        <v>51650</v>
+      </c>
+      <c r="D323" t="n">
+        <v>51650</v>
+      </c>
+      <c r="E323" t="n">
+        <v>51650</v>
+      </c>
+      <c r="F323" t="n">
+        <v>77.4443</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-2987.51806602</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>51650</v>
+      </c>
+      <c r="C324" t="n">
+        <v>51600</v>
+      </c>
+      <c r="D324" t="n">
+        <v>51650</v>
+      </c>
+      <c r="E324" t="n">
+        <v>51600</v>
+      </c>
+      <c r="F324" t="n">
+        <v>43.7751</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-3031.29316602</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>51550</v>
+      </c>
+      <c r="C325" t="n">
+        <v>51600</v>
+      </c>
+      <c r="D325" t="n">
+        <v>51600</v>
+      </c>
+      <c r="E325" t="n">
+        <v>51550</v>
+      </c>
+      <c r="F325" t="n">
+        <v>58.4131</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-3031.29316602</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>51650</v>
+      </c>
+      <c r="C326" t="n">
+        <v>51650</v>
+      </c>
+      <c r="D326" t="n">
+        <v>51650</v>
+      </c>
+      <c r="E326" t="n">
+        <v>51650</v>
+      </c>
+      <c r="F326" t="n">
+        <v>3.8904</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-3027.402766019999</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>51650</v>
+      </c>
+      <c r="C327" t="n">
+        <v>51650</v>
+      </c>
+      <c r="D327" t="n">
+        <v>51700</v>
+      </c>
+      <c r="E327" t="n">
+        <v>51650</v>
+      </c>
+      <c r="F327" t="n">
+        <v>184.4954</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-3027.402766019999</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>51650</v>
+      </c>
+      <c r="C328" t="n">
+        <v>51700</v>
+      </c>
+      <c r="D328" t="n">
+        <v>51700</v>
+      </c>
+      <c r="E328" t="n">
+        <v>51650</v>
+      </c>
+      <c r="F328" t="n">
+        <v>4.01679419</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-3023.38597183</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>51750</v>
+      </c>
+      <c r="C329" t="n">
+        <v>51750</v>
+      </c>
+      <c r="D329" t="n">
+        <v>51750</v>
+      </c>
+      <c r="E329" t="n">
+        <v>51750</v>
+      </c>
+      <c r="F329" t="n">
+        <v>15.766</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-3007.619971829999</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>51750</v>
+      </c>
+      <c r="C330" t="n">
+        <v>51750</v>
+      </c>
+      <c r="D330" t="n">
+        <v>51750</v>
+      </c>
+      <c r="E330" t="n">
+        <v>51750</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.7829</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-3007.619971829999</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>51800</v>
+      </c>
+      <c r="C331" t="n">
+        <v>51850</v>
+      </c>
+      <c r="D331" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E331" t="n">
+        <v>51800</v>
+      </c>
+      <c r="F331" t="n">
+        <v>355.7896</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-2651.830371829999</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>51950</v>
+      </c>
+      <c r="C332" t="n">
+        <v>51950</v>
+      </c>
+      <c r="D332" t="n">
+        <v>51950</v>
+      </c>
+      <c r="E332" t="n">
+        <v>51950</v>
+      </c>
+      <c r="F332" t="n">
+        <v>69.3711</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-2582.45927183</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>52000</v>
+      </c>
+      <c r="C333" t="n">
+        <v>52000</v>
+      </c>
+      <c r="D333" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E333" t="n">
+        <v>52000</v>
+      </c>
+      <c r="F333" t="n">
+        <v>22.2578</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-2560.20147183</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>52000</v>
+      </c>
+      <c r="C334" t="n">
+        <v>52000</v>
+      </c>
+      <c r="D334" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E334" t="n">
+        <v>52000</v>
+      </c>
+      <c r="F334" t="n">
+        <v>36.7506</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-2560.20147183</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>51950</v>
+      </c>
+      <c r="C335" t="n">
+        <v>51950</v>
+      </c>
+      <c r="D335" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E335" t="n">
+        <v>51850</v>
+      </c>
+      <c r="F335" t="n">
+        <v>403.1705</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-2963.37197183</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>51950</v>
+      </c>
+      <c r="C336" t="n">
+        <v>51950</v>
+      </c>
+      <c r="D336" t="n">
+        <v>51950</v>
+      </c>
+      <c r="E336" t="n">
+        <v>51950</v>
+      </c>
+      <c r="F336" t="n">
+        <v>60.1586</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-2963.37197183</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>51950</v>
+      </c>
+      <c r="C337" t="n">
+        <v>51850</v>
+      </c>
+      <c r="D337" t="n">
+        <v>51950</v>
+      </c>
+      <c r="E337" t="n">
+        <v>51850</v>
+      </c>
+      <c r="F337" t="n">
+        <v>98.25916827</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-3061.6311401</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>51800</v>
+      </c>
+      <c r="C338" t="n">
+        <v>51900</v>
+      </c>
+      <c r="D338" t="n">
+        <v>51900</v>
+      </c>
+      <c r="E338" t="n">
+        <v>51800</v>
+      </c>
+      <c r="F338" t="n">
+        <v>151.8286</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-2909.8025401</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>51750</v>
+      </c>
+      <c r="C339" t="n">
+        <v>51750</v>
+      </c>
+      <c r="D339" t="n">
+        <v>51750</v>
+      </c>
+      <c r="E339" t="n">
+        <v>51750</v>
+      </c>
+      <c r="F339" t="n">
+        <v>100</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-3009.8025401</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>51700</v>
+      </c>
+      <c r="C340" t="n">
+        <v>51600</v>
+      </c>
+      <c r="D340" t="n">
+        <v>51700</v>
+      </c>
+      <c r="E340" t="n">
+        <v>51600</v>
+      </c>
+      <c r="F340" t="n">
+        <v>109.5843</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-3119.3868401</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>51650</v>
+      </c>
+      <c r="C341" t="n">
+        <v>51650</v>
+      </c>
+      <c r="D341" t="n">
+        <v>51650</v>
+      </c>
+      <c r="E341" t="n">
+        <v>51650</v>
+      </c>
+      <c r="F341" t="n">
+        <v>140.687</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-2978.6998401</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>51750</v>
+      </c>
+      <c r="C342" t="n">
+        <v>51650</v>
+      </c>
+      <c r="D342" t="n">
+        <v>51750</v>
+      </c>
+      <c r="E342" t="n">
+        <v>51600</v>
+      </c>
+      <c r="F342" t="n">
+        <v>363.2358</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-2978.6998401</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>51650</v>
+      </c>
+      <c r="C343" t="n">
+        <v>51650</v>
+      </c>
+      <c r="D343" t="n">
+        <v>51650</v>
+      </c>
+      <c r="E343" t="n">
+        <v>51650</v>
+      </c>
+      <c r="F343" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-2978.6998401</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>51650</v>
+      </c>
+      <c r="C344" t="n">
+        <v>51650</v>
+      </c>
+      <c r="D344" t="n">
+        <v>51650</v>
+      </c>
+      <c r="E344" t="n">
+        <v>51650</v>
+      </c>
+      <c r="F344" t="n">
+        <v>2.8894</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-2978.6998401</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>51700</v>
+      </c>
+      <c r="C345" t="n">
+        <v>51750</v>
+      </c>
+      <c r="D345" t="n">
+        <v>51750</v>
+      </c>
+      <c r="E345" t="n">
+        <v>51700</v>
+      </c>
+      <c r="F345" t="n">
+        <v>7.1138</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-2971.5860401</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>51800</v>
+      </c>
+      <c r="C346" t="n">
+        <v>51800</v>
+      </c>
+      <c r="D346" t="n">
+        <v>51800</v>
+      </c>
+      <c r="E346" t="n">
+        <v>51800</v>
+      </c>
+      <c r="F346" t="n">
+        <v>14.4058</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-2957.1802401</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>51850</v>
+      </c>
+      <c r="C347" t="n">
+        <v>51850</v>
+      </c>
+      <c r="D347" t="n">
+        <v>51850</v>
+      </c>
+      <c r="E347" t="n">
+        <v>51850</v>
+      </c>
+      <c r="F347" t="n">
+        <v>32.5727</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-2924.6075401</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>51850</v>
+      </c>
+      <c r="C348" t="n">
+        <v>51850</v>
+      </c>
+      <c r="D348" t="n">
+        <v>51850</v>
+      </c>
+      <c r="E348" t="n">
+        <v>51850</v>
+      </c>
+      <c r="F348" t="n">
+        <v>4.1015</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-2924.6075401</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>51850</v>
+      </c>
+      <c r="C349" t="n">
+        <v>51850</v>
+      </c>
+      <c r="D349" t="n">
+        <v>51850</v>
+      </c>
+      <c r="E349" t="n">
+        <v>51800</v>
+      </c>
+      <c r="F349" t="n">
+        <v>30.62050481</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-2924.6075401</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>51850</v>
+      </c>
+      <c r="C350" t="n">
+        <v>51900</v>
+      </c>
+      <c r="D350" t="n">
+        <v>51900</v>
+      </c>
+      <c r="E350" t="n">
+        <v>51850</v>
+      </c>
+      <c r="F350" t="n">
+        <v>37.95929519</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-2886.64824491</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>51950</v>
+      </c>
+      <c r="C351" t="n">
+        <v>51950</v>
+      </c>
+      <c r="D351" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E351" t="n">
+        <v>51950</v>
+      </c>
+      <c r="F351" t="n">
+        <v>116.6432</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-2770.00504491</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>51900</v>
+      </c>
+      <c r="C352" t="n">
+        <v>51950</v>
+      </c>
+      <c r="D352" t="n">
+        <v>51950</v>
+      </c>
+      <c r="E352" t="n">
+        <v>51900</v>
+      </c>
+      <c r="F352" t="n">
+        <v>119.8194</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-2770.00504491</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>52000</v>
+      </c>
+      <c r="C353" t="n">
+        <v>52000</v>
+      </c>
+      <c r="D353" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E353" t="n">
+        <v>52000</v>
+      </c>
+      <c r="F353" t="n">
+        <v>100</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-2670.00504491</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>52100</v>
+      </c>
+      <c r="C354" t="n">
+        <v>52000</v>
+      </c>
+      <c r="D354" t="n">
+        <v>52100</v>
+      </c>
+      <c r="E354" t="n">
+        <v>52000</v>
+      </c>
+      <c r="F354" t="n">
+        <v>32.5085</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-2670.00504491</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>52000</v>
+      </c>
+      <c r="C355" t="n">
+        <v>51950</v>
+      </c>
+      <c r="D355" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E355" t="n">
+        <v>51950</v>
+      </c>
+      <c r="F355" t="n">
+        <v>45.1518</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-2715.15684491</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>51850</v>
+      </c>
+      <c r="C356" t="n">
+        <v>51750</v>
+      </c>
+      <c r="D356" t="n">
+        <v>51850</v>
+      </c>
+      <c r="E356" t="n">
+        <v>51750</v>
+      </c>
+      <c r="F356" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-2727.25684491</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>51750</v>
+      </c>
+      <c r="C357" t="n">
+        <v>51750</v>
+      </c>
+      <c r="D357" t="n">
+        <v>51750</v>
+      </c>
+      <c r="E357" t="n">
+        <v>51750</v>
+      </c>
+      <c r="F357" t="n">
+        <v>25</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-2727.25684491</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>52000</v>
+      </c>
+      <c r="C358" t="n">
+        <v>52050</v>
+      </c>
+      <c r="D358" t="n">
+        <v>52050</v>
+      </c>
+      <c r="E358" t="n">
+        <v>52000</v>
+      </c>
+      <c r="F358" t="n">
+        <v>8.087400000000001</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-2719.16944491</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>52050</v>
+      </c>
+      <c r="C359" t="n">
+        <v>52000</v>
+      </c>
+      <c r="D359" t="n">
+        <v>52050</v>
+      </c>
+      <c r="E359" t="n">
+        <v>52000</v>
+      </c>
+      <c r="F359" t="n">
+        <v>63.658</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-2782.82744491</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>51950</v>
+      </c>
+      <c r="C360" t="n">
+        <v>52000</v>
+      </c>
+      <c r="D360" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E360" t="n">
+        <v>51850</v>
+      </c>
+      <c r="F360" t="n">
+        <v>237.8599</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-2782.82744491</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>51850</v>
+      </c>
+      <c r="C361" t="n">
+        <v>51850</v>
+      </c>
+      <c r="D361" t="n">
+        <v>51850</v>
+      </c>
+      <c r="E361" t="n">
+        <v>51850</v>
+      </c>
+      <c r="F361" t="n">
+        <v>5.3636</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-2788.19104491</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>51800</v>
+      </c>
+      <c r="C362" t="n">
+        <v>51850</v>
+      </c>
+      <c r="D362" t="n">
+        <v>51850</v>
+      </c>
+      <c r="E362" t="n">
+        <v>51750</v>
+      </c>
+      <c r="F362" t="n">
+        <v>27.69710916</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-2788.19104491</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>51750</v>
+      </c>
+      <c r="C363" t="n">
+        <v>51750</v>
+      </c>
+      <c r="D363" t="n">
+        <v>51750</v>
+      </c>
+      <c r="E363" t="n">
+        <v>51750</v>
+      </c>
+      <c r="F363" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-2821.99104491</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>51850</v>
+      </c>
+      <c r="C364" t="n">
+        <v>51850</v>
+      </c>
+      <c r="D364" t="n">
+        <v>51850</v>
+      </c>
+      <c r="E364" t="n">
+        <v>51850</v>
+      </c>
+      <c r="F364" t="n">
+        <v>131.6742</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-2690.31684491</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>51900</v>
+      </c>
+      <c r="C365" t="n">
+        <v>51950</v>
+      </c>
+      <c r="D365" t="n">
+        <v>51950</v>
+      </c>
+      <c r="E365" t="n">
+        <v>51900</v>
+      </c>
+      <c r="F365" t="n">
+        <v>215.3578</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-2474.959044910001</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>51900</v>
+      </c>
+      <c r="C366" t="n">
+        <v>51900</v>
+      </c>
+      <c r="D366" t="n">
+        <v>51900</v>
+      </c>
+      <c r="E366" t="n">
+        <v>51900</v>
+      </c>
+      <c r="F366" t="n">
+        <v>50</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-2524.959044910001</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>51900</v>
+      </c>
+      <c r="C367" t="n">
+        <v>51900</v>
+      </c>
+      <c r="D367" t="n">
+        <v>51900</v>
+      </c>
+      <c r="E367" t="n">
+        <v>51900</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.7829</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-2524.959044910001</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>52000</v>
+      </c>
+      <c r="C368" t="n">
+        <v>52000</v>
+      </c>
+      <c r="D368" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E368" t="n">
+        <v>52000</v>
+      </c>
+      <c r="F368" t="n">
+        <v>1.4314</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-2523.527644910001</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>52000</v>
+      </c>
+      <c r="C369" t="n">
+        <v>52000</v>
+      </c>
+      <c r="D369" t="n">
+        <v>52100</v>
+      </c>
+      <c r="E369" t="n">
+        <v>52000</v>
+      </c>
+      <c r="F369" t="n">
+        <v>263.3337</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-2523.527644910001</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>52050</v>
+      </c>
+      <c r="C370" t="n">
+        <v>52050</v>
+      </c>
+      <c r="D370" t="n">
+        <v>52050</v>
+      </c>
+      <c r="E370" t="n">
+        <v>52050</v>
+      </c>
+      <c r="F370" t="n">
+        <v>3.1603</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-2520.367344910001</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>52200</v>
+      </c>
+      <c r="C371" t="n">
+        <v>52200</v>
+      </c>
+      <c r="D371" t="n">
+        <v>52200</v>
+      </c>
+      <c r="E371" t="n">
+        <v>52200</v>
+      </c>
+      <c r="F371" t="n">
+        <v>2.2695</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-2518.097844910001</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>52250</v>
+      </c>
+      <c r="C372" t="n">
+        <v>52400</v>
+      </c>
+      <c r="D372" t="n">
+        <v>52400</v>
+      </c>
+      <c r="E372" t="n">
+        <v>52150</v>
+      </c>
+      <c r="F372" t="n">
+        <v>47.4837</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-2470.614144910001</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>52400</v>
+      </c>
+      <c r="C373" t="n">
+        <v>52400</v>
+      </c>
+      <c r="D373" t="n">
+        <v>52400</v>
+      </c>
+      <c r="E373" t="n">
+        <v>52300</v>
+      </c>
+      <c r="F373" t="n">
+        <v>51.9487</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-2470.614144910001</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>52500</v>
+      </c>
+      <c r="C374" t="n">
+        <v>52650</v>
+      </c>
+      <c r="D374" t="n">
+        <v>52650</v>
+      </c>
+      <c r="E374" t="n">
+        <v>52500</v>
+      </c>
+      <c r="F374" t="n">
+        <v>28.3518</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-2442.262344910001</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>52650</v>
+      </c>
+      <c r="C375" t="n">
+        <v>52650</v>
+      </c>
+      <c r="D375" t="n">
+        <v>52650</v>
+      </c>
+      <c r="E375" t="n">
+        <v>52500</v>
+      </c>
+      <c r="F375" t="n">
+        <v>6.8634</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-2442.262344910001</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>52500</v>
+      </c>
+      <c r="C376" t="n">
+        <v>52400</v>
+      </c>
+      <c r="D376" t="n">
+        <v>52500</v>
+      </c>
+      <c r="E376" t="n">
+        <v>52400</v>
+      </c>
+      <c r="F376" t="n">
+        <v>39.1779</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-2481.440244910001</v>
+      </c>
+      <c r="H376" t="n">
+        <v>2</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>50500</v>
+      </c>
+      <c r="K376" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L321" t="n">
-        <v>1.021838966202783</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>51650</v>
-      </c>
-      <c r="C322" t="n">
-        <v>51650</v>
-      </c>
-      <c r="D322" t="n">
-        <v>51650</v>
-      </c>
-      <c r="E322" t="n">
-        <v>51650</v>
-      </c>
-      <c r="F322" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-2987.51806602</v>
-      </c>
-      <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>51650</v>
-      </c>
-      <c r="C323" t="n">
-        <v>51650</v>
-      </c>
-      <c r="D323" t="n">
-        <v>51650</v>
-      </c>
-      <c r="E323" t="n">
-        <v>51650</v>
-      </c>
-      <c r="F323" t="n">
-        <v>77.4443</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-2987.51806602</v>
-      </c>
-      <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>51650</v>
-      </c>
-      <c r="C324" t="n">
-        <v>51600</v>
-      </c>
-      <c r="D324" t="n">
-        <v>51650</v>
-      </c>
-      <c r="E324" t="n">
-        <v>51600</v>
-      </c>
-      <c r="F324" t="n">
-        <v>43.7751</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-3031.29316602</v>
-      </c>
-      <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>51550</v>
-      </c>
-      <c r="C325" t="n">
-        <v>51600</v>
-      </c>
-      <c r="D325" t="n">
-        <v>51600</v>
-      </c>
-      <c r="E325" t="n">
-        <v>51550</v>
-      </c>
-      <c r="F325" t="n">
-        <v>58.4131</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-3031.29316602</v>
-      </c>
-      <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>51650</v>
-      </c>
-      <c r="C326" t="n">
-        <v>51650</v>
-      </c>
-      <c r="D326" t="n">
-        <v>51650</v>
-      </c>
-      <c r="E326" t="n">
-        <v>51650</v>
-      </c>
-      <c r="F326" t="n">
-        <v>3.8904</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-3027.402766019999</v>
-      </c>
-      <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>51650</v>
-      </c>
-      <c r="C327" t="n">
-        <v>51650</v>
-      </c>
-      <c r="D327" t="n">
-        <v>51700</v>
-      </c>
-      <c r="E327" t="n">
-        <v>51650</v>
-      </c>
-      <c r="F327" t="n">
-        <v>184.4954</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-3027.402766019999</v>
-      </c>
-      <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>51650</v>
-      </c>
-      <c r="C328" t="n">
-        <v>51700</v>
-      </c>
-      <c r="D328" t="n">
-        <v>51700</v>
-      </c>
-      <c r="E328" t="n">
-        <v>51650</v>
-      </c>
-      <c r="F328" t="n">
-        <v>4.01679419</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-3023.38597183</v>
-      </c>
-      <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>51750</v>
-      </c>
-      <c r="C329" t="n">
-        <v>51750</v>
-      </c>
-      <c r="D329" t="n">
-        <v>51750</v>
-      </c>
-      <c r="E329" t="n">
-        <v>51750</v>
-      </c>
-      <c r="F329" t="n">
-        <v>15.766</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-3007.619971829999</v>
-      </c>
-      <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>51750</v>
-      </c>
-      <c r="C330" t="n">
-        <v>51750</v>
-      </c>
-      <c r="D330" t="n">
-        <v>51750</v>
-      </c>
-      <c r="E330" t="n">
-        <v>51750</v>
-      </c>
-      <c r="F330" t="n">
-        <v>0.7829</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-3007.619971829999</v>
-      </c>
-      <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>51800</v>
-      </c>
-      <c r="C331" t="n">
-        <v>51850</v>
-      </c>
-      <c r="D331" t="n">
-        <v>52000</v>
-      </c>
-      <c r="E331" t="n">
-        <v>51800</v>
-      </c>
-      <c r="F331" t="n">
-        <v>355.7896</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-2651.830371829999</v>
-      </c>
-      <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>51950</v>
-      </c>
-      <c r="C332" t="n">
-        <v>51950</v>
-      </c>
-      <c r="D332" t="n">
-        <v>51950</v>
-      </c>
-      <c r="E332" t="n">
-        <v>51950</v>
-      </c>
-      <c r="F332" t="n">
-        <v>69.3711</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-2582.45927183</v>
-      </c>
-      <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C333" t="n">
-        <v>52000</v>
-      </c>
-      <c r="D333" t="n">
-        <v>52000</v>
-      </c>
-      <c r="E333" t="n">
-        <v>52000</v>
-      </c>
-      <c r="F333" t="n">
-        <v>22.2578</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-2560.20147183</v>
-      </c>
-      <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C334" t="n">
-        <v>52000</v>
-      </c>
-      <c r="D334" t="n">
-        <v>52000</v>
-      </c>
-      <c r="E334" t="n">
-        <v>52000</v>
-      </c>
-      <c r="F334" t="n">
-        <v>36.7506</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-2560.20147183</v>
-      </c>
-      <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>51950</v>
-      </c>
-      <c r="C335" t="n">
-        <v>51950</v>
-      </c>
-      <c r="D335" t="n">
-        <v>52000</v>
-      </c>
-      <c r="E335" t="n">
-        <v>51850</v>
-      </c>
-      <c r="F335" t="n">
-        <v>403.1705</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-2963.37197183</v>
-      </c>
-      <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>51950</v>
-      </c>
-      <c r="C336" t="n">
-        <v>51950</v>
-      </c>
-      <c r="D336" t="n">
-        <v>51950</v>
-      </c>
-      <c r="E336" t="n">
-        <v>51950</v>
-      </c>
-      <c r="F336" t="n">
-        <v>60.1586</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-2963.37197183</v>
-      </c>
-      <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>51950</v>
-      </c>
-      <c r="C337" t="n">
-        <v>51850</v>
-      </c>
-      <c r="D337" t="n">
-        <v>51950</v>
-      </c>
-      <c r="E337" t="n">
-        <v>51850</v>
-      </c>
-      <c r="F337" t="n">
-        <v>98.25916827</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-3061.6311401</v>
-      </c>
-      <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>51800</v>
-      </c>
-      <c r="C338" t="n">
-        <v>51900</v>
-      </c>
-      <c r="D338" t="n">
-        <v>51900</v>
-      </c>
-      <c r="E338" t="n">
-        <v>51800</v>
-      </c>
-      <c r="F338" t="n">
-        <v>151.8286</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-2909.8025401</v>
-      </c>
-      <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>51750</v>
-      </c>
-      <c r="C339" t="n">
-        <v>51750</v>
-      </c>
-      <c r="D339" t="n">
-        <v>51750</v>
-      </c>
-      <c r="E339" t="n">
-        <v>51750</v>
-      </c>
-      <c r="F339" t="n">
-        <v>100</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-3009.8025401</v>
-      </c>
-      <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>51700</v>
-      </c>
-      <c r="C340" t="n">
-        <v>51600</v>
-      </c>
-      <c r="D340" t="n">
-        <v>51700</v>
-      </c>
-      <c r="E340" t="n">
-        <v>51600</v>
-      </c>
-      <c r="F340" t="n">
-        <v>109.5843</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-3119.3868401</v>
-      </c>
-      <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>51650</v>
-      </c>
-      <c r="C341" t="n">
-        <v>51650</v>
-      </c>
-      <c r="D341" t="n">
-        <v>51650</v>
-      </c>
-      <c r="E341" t="n">
-        <v>51650</v>
-      </c>
-      <c r="F341" t="n">
-        <v>140.687</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-2978.6998401</v>
-      </c>
-      <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>51750</v>
-      </c>
-      <c r="C342" t="n">
-        <v>51650</v>
-      </c>
-      <c r="D342" t="n">
-        <v>51750</v>
-      </c>
-      <c r="E342" t="n">
-        <v>51600</v>
-      </c>
-      <c r="F342" t="n">
-        <v>363.2358</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-2978.6998401</v>
-      </c>
-      <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>51650</v>
-      </c>
-      <c r="C343" t="n">
-        <v>51650</v>
-      </c>
-      <c r="D343" t="n">
-        <v>51650</v>
-      </c>
-      <c r="E343" t="n">
-        <v>51650</v>
-      </c>
-      <c r="F343" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-2978.6998401</v>
-      </c>
-      <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>51650</v>
-      </c>
-      <c r="C344" t="n">
-        <v>51650</v>
-      </c>
-      <c r="D344" t="n">
-        <v>51650</v>
-      </c>
-      <c r="E344" t="n">
-        <v>51650</v>
-      </c>
-      <c r="F344" t="n">
-        <v>2.8894</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-2978.6998401</v>
-      </c>
-      <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>51700</v>
-      </c>
-      <c r="C345" t="n">
-        <v>51750</v>
-      </c>
-      <c r="D345" t="n">
-        <v>51750</v>
-      </c>
-      <c r="E345" t="n">
-        <v>51700</v>
-      </c>
-      <c r="F345" t="n">
-        <v>7.1138</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-2971.5860401</v>
-      </c>
-      <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>51800</v>
-      </c>
-      <c r="C346" t="n">
-        <v>51800</v>
-      </c>
-      <c r="D346" t="n">
-        <v>51800</v>
-      </c>
-      <c r="E346" t="n">
-        <v>51800</v>
-      </c>
-      <c r="F346" t="n">
-        <v>14.4058</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-2957.1802401</v>
-      </c>
-      <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>51850</v>
-      </c>
-      <c r="C347" t="n">
-        <v>51850</v>
-      </c>
-      <c r="D347" t="n">
-        <v>51850</v>
-      </c>
-      <c r="E347" t="n">
-        <v>51850</v>
-      </c>
-      <c r="F347" t="n">
-        <v>32.5727</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-2924.6075401</v>
-      </c>
-      <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>51850</v>
-      </c>
-      <c r="C348" t="n">
-        <v>51850</v>
-      </c>
-      <c r="D348" t="n">
-        <v>51850</v>
-      </c>
-      <c r="E348" t="n">
-        <v>51850</v>
-      </c>
-      <c r="F348" t="n">
-        <v>4.1015</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-2924.6075401</v>
-      </c>
-      <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>51850</v>
-      </c>
-      <c r="C349" t="n">
-        <v>51850</v>
-      </c>
-      <c r="D349" t="n">
-        <v>51850</v>
-      </c>
-      <c r="E349" t="n">
-        <v>51800</v>
-      </c>
-      <c r="F349" t="n">
-        <v>30.62050481</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-2924.6075401</v>
-      </c>
-      <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>51850</v>
-      </c>
-      <c r="C350" t="n">
-        <v>51900</v>
-      </c>
-      <c r="D350" t="n">
-        <v>51900</v>
-      </c>
-      <c r="E350" t="n">
-        <v>51850</v>
-      </c>
-      <c r="F350" t="n">
-        <v>37.95929519</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-2886.64824491</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>51950</v>
-      </c>
-      <c r="C351" t="n">
-        <v>51950</v>
-      </c>
-      <c r="D351" t="n">
-        <v>52000</v>
-      </c>
-      <c r="E351" t="n">
-        <v>51950</v>
-      </c>
-      <c r="F351" t="n">
-        <v>116.6432</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-2770.00504491</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>51900</v>
-      </c>
-      <c r="C352" t="n">
-        <v>51950</v>
-      </c>
-      <c r="D352" t="n">
-        <v>51950</v>
-      </c>
-      <c r="E352" t="n">
-        <v>51900</v>
-      </c>
-      <c r="F352" t="n">
-        <v>119.8194</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-2770.00504491</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C353" t="n">
-        <v>52000</v>
-      </c>
-      <c r="D353" t="n">
-        <v>52000</v>
-      </c>
-      <c r="E353" t="n">
-        <v>52000</v>
-      </c>
-      <c r="F353" t="n">
-        <v>100</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-2670.00504491</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>52100</v>
-      </c>
-      <c r="C354" t="n">
-        <v>52000</v>
-      </c>
-      <c r="D354" t="n">
-        <v>52100</v>
-      </c>
-      <c r="E354" t="n">
-        <v>52000</v>
-      </c>
-      <c r="F354" t="n">
-        <v>32.5085</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-2670.00504491</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C355" t="n">
-        <v>51950</v>
-      </c>
-      <c r="D355" t="n">
-        <v>52000</v>
-      </c>
-      <c r="E355" t="n">
-        <v>51950</v>
-      </c>
-      <c r="F355" t="n">
-        <v>45.1518</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-2715.15684491</v>
-      </c>
-      <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>51850</v>
-      </c>
-      <c r="C356" t="n">
-        <v>51750</v>
-      </c>
-      <c r="D356" t="n">
-        <v>51850</v>
-      </c>
-      <c r="E356" t="n">
-        <v>51750</v>
-      </c>
-      <c r="F356" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-2727.25684491</v>
-      </c>
-      <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>51750</v>
-      </c>
-      <c r="C357" t="n">
-        <v>51750</v>
-      </c>
-      <c r="D357" t="n">
-        <v>51750</v>
-      </c>
-      <c r="E357" t="n">
-        <v>51750</v>
-      </c>
-      <c r="F357" t="n">
-        <v>25</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-2727.25684491</v>
-      </c>
-      <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C358" t="n">
-        <v>52050</v>
-      </c>
-      <c r="D358" t="n">
-        <v>52050</v>
-      </c>
-      <c r="E358" t="n">
-        <v>52000</v>
-      </c>
-      <c r="F358" t="n">
-        <v>8.087400000000001</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-2719.16944491</v>
-      </c>
-      <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>52050</v>
-      </c>
-      <c r="C359" t="n">
-        <v>52000</v>
-      </c>
-      <c r="D359" t="n">
-        <v>52050</v>
-      </c>
-      <c r="E359" t="n">
-        <v>52000</v>
-      </c>
-      <c r="F359" t="n">
-        <v>63.658</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-2782.82744491</v>
-      </c>
-      <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>51950</v>
-      </c>
-      <c r="C360" t="n">
-        <v>52000</v>
-      </c>
-      <c r="D360" t="n">
-        <v>52000</v>
-      </c>
-      <c r="E360" t="n">
-        <v>51850</v>
-      </c>
-      <c r="F360" t="n">
-        <v>237.8599</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-2782.82744491</v>
-      </c>
-      <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>51850</v>
-      </c>
-      <c r="C361" t="n">
-        <v>51850</v>
-      </c>
-      <c r="D361" t="n">
-        <v>51850</v>
-      </c>
-      <c r="E361" t="n">
-        <v>51850</v>
-      </c>
-      <c r="F361" t="n">
-        <v>5.3636</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-2788.19104491</v>
-      </c>
-      <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>51800</v>
-      </c>
-      <c r="C362" t="n">
-        <v>51850</v>
-      </c>
-      <c r="D362" t="n">
-        <v>51850</v>
-      </c>
-      <c r="E362" t="n">
-        <v>51750</v>
-      </c>
-      <c r="F362" t="n">
-        <v>27.69710916</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-2788.19104491</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>51750</v>
-      </c>
-      <c r="C363" t="n">
-        <v>51750</v>
-      </c>
-      <c r="D363" t="n">
-        <v>51750</v>
-      </c>
-      <c r="E363" t="n">
-        <v>51750</v>
-      </c>
-      <c r="F363" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-2821.99104491</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>51850</v>
-      </c>
-      <c r="C364" t="n">
-        <v>51850</v>
-      </c>
-      <c r="D364" t="n">
-        <v>51850</v>
-      </c>
-      <c r="E364" t="n">
-        <v>51850</v>
-      </c>
-      <c r="F364" t="n">
-        <v>131.6742</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-2690.31684491</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>51900</v>
-      </c>
-      <c r="C365" t="n">
-        <v>51950</v>
-      </c>
-      <c r="D365" t="n">
-        <v>51950</v>
-      </c>
-      <c r="E365" t="n">
-        <v>51900</v>
-      </c>
-      <c r="F365" t="n">
-        <v>215.3578</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-2474.959044910001</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>51900</v>
-      </c>
-      <c r="C366" t="n">
-        <v>51900</v>
-      </c>
-      <c r="D366" t="n">
-        <v>51900</v>
-      </c>
-      <c r="E366" t="n">
-        <v>51900</v>
-      </c>
-      <c r="F366" t="n">
-        <v>50</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-2524.959044910001</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>51900</v>
-      </c>
-      <c r="C367" t="n">
-        <v>51900</v>
-      </c>
-      <c r="D367" t="n">
-        <v>51900</v>
-      </c>
-      <c r="E367" t="n">
-        <v>51900</v>
-      </c>
-      <c r="F367" t="n">
-        <v>0.7829</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-2524.959044910001</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C368" t="n">
-        <v>52000</v>
-      </c>
-      <c r="D368" t="n">
-        <v>52000</v>
-      </c>
-      <c r="E368" t="n">
-        <v>52000</v>
-      </c>
-      <c r="F368" t="n">
-        <v>1.4314</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-2523.527644910001</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>52000</v>
-      </c>
-      <c r="C369" t="n">
-        <v>52000</v>
-      </c>
-      <c r="D369" t="n">
-        <v>52100</v>
-      </c>
-      <c r="E369" t="n">
-        <v>52000</v>
-      </c>
-      <c r="F369" t="n">
-        <v>263.3337</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-2523.527644910001</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>52050</v>
-      </c>
-      <c r="C370" t="n">
-        <v>52050</v>
-      </c>
-      <c r="D370" t="n">
-        <v>52050</v>
-      </c>
-      <c r="E370" t="n">
-        <v>52050</v>
-      </c>
-      <c r="F370" t="n">
-        <v>3.1603</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-2520.367344910001</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>52200</v>
-      </c>
-      <c r="C371" t="n">
-        <v>52200</v>
-      </c>
-      <c r="D371" t="n">
-        <v>52200</v>
-      </c>
-      <c r="E371" t="n">
-        <v>52200</v>
-      </c>
-      <c r="F371" t="n">
-        <v>2.2695</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-2518.097844910001</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>52250</v>
-      </c>
-      <c r="C372" t="n">
-        <v>52400</v>
-      </c>
-      <c r="D372" t="n">
-        <v>52400</v>
-      </c>
-      <c r="E372" t="n">
-        <v>52150</v>
-      </c>
-      <c r="F372" t="n">
-        <v>47.4837</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-2470.614144910001</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>52400</v>
-      </c>
-      <c r="C373" t="n">
-        <v>52400</v>
-      </c>
-      <c r="D373" t="n">
-        <v>52400</v>
-      </c>
-      <c r="E373" t="n">
-        <v>52300</v>
-      </c>
-      <c r="F373" t="n">
-        <v>51.9487</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-2470.614144910001</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>52500</v>
-      </c>
-      <c r="C374" t="n">
-        <v>52650</v>
-      </c>
-      <c r="D374" t="n">
-        <v>52650</v>
-      </c>
-      <c r="E374" t="n">
-        <v>52500</v>
-      </c>
-      <c r="F374" t="n">
-        <v>28.3518</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-2442.262344910001</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>52650</v>
-      </c>
-      <c r="C375" t="n">
-        <v>52650</v>
-      </c>
-      <c r="D375" t="n">
-        <v>52650</v>
-      </c>
-      <c r="E375" t="n">
-        <v>52500</v>
-      </c>
-      <c r="F375" t="n">
-        <v>6.8634</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-2442.262344910001</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>52500</v>
-      </c>
-      <c r="C376" t="n">
-        <v>52400</v>
-      </c>
-      <c r="D376" t="n">
-        <v>52500</v>
-      </c>
-      <c r="E376" t="n">
-        <v>52400</v>
-      </c>
-      <c r="F376" t="n">
-        <v>39.1779</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-2481.440244910001</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
-        <v>1</v>
+        <v>1.032623762376238</v>
       </c>
       <c r="M376" t="inlineStr"/>
     </row>
@@ -13302,7 +13678,7 @@
         <v>-2976.175828900001</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13335,7 +13711,7 @@
         <v>-2609.051425140001</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13368,7 +13744,7 @@
         <v>-2916.346525140001</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13401,7 +13777,7 @@
         <v>-2997.084825140001</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13434,7 +13810,7 @@
         <v>-2663.021925140001</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13467,7 +13843,7 @@
         <v>-3135.882425140001</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13500,7 +13876,7 @@
         <v>-3130.170525140001</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13533,7 +13909,7 @@
         <v>-3116.260425140001</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13566,7 +13942,7 @@
         <v>-3120.560825140001</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13599,7 +13975,7 @@
         <v>-3119.701430060001</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13632,7 +14008,7 @@
         <v>-3119.701430060001</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13665,7 +14041,7 @@
         <v>-3091.553230060001</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13698,7 +14074,7 @@
         <v>-3180.641430060001</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13731,7 +14107,7 @@
         <v>-3180.641430060001</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13764,7 +14140,7 @@
         <v>-3165.673230060002</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13797,7 +14173,7 @@
         <v>-3165.673230060002</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13830,7 +14206,7 @@
         <v>-3291.446830060002</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13863,7 +14239,7 @@
         <v>-3304.841130060001</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13896,7 +14272,7 @@
         <v>-3339.921930060002</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14292,7 +14668,7 @@
         <v>-3250.202385970002</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14391,7 +14767,7 @@
         <v>-3195.376185970001</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
